--- a/db/uploads/50gacoops.xlsx
+++ b/db/uploads/50gacoops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/GA_system/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E088B-E449-B24C-AD12-5EAC82B09A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63769D58-0481-0140-8D1C-7A8B44F433A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8501" uniqueCount="6661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8495" uniqueCount="6657">
   <si>
     <t>NO.</t>
   </si>
@@ -17506,15 +17506,9 @@
     <t>AGA00192</t>
   </si>
   <si>
-    <t>AGA00193</t>
-  </si>
-  <si>
     <t>AGA00194</t>
   </si>
   <si>
-    <t>AGA00195</t>
-  </si>
-  <si>
     <t>AGA00196</t>
   </si>
   <si>
@@ -19090,13 +19084,7 @@
     <t>YN8F</t>
   </si>
   <si>
-    <t>7QZS</t>
-  </si>
-  <si>
     <t>NHPH</t>
-  </si>
-  <si>
-    <t>49UA</t>
   </si>
   <si>
     <t>4XKP</t>
@@ -74681,10 +74669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C530"/>
+  <dimension ref="A2:C528"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -74702,7 +74690,7 @@
         <v>5606</v>
       </c>
       <c r="C2" t="s">
-        <v>6134</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -74713,7 +74701,7 @@
         <v>5607</v>
       </c>
       <c r="C3" t="s">
-        <v>6135</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -74724,7 +74712,7 @@
         <v>5608</v>
       </c>
       <c r="C4" t="s">
-        <v>6136</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -74735,7 +74723,7 @@
         <v>5609</v>
       </c>
       <c r="C5" t="s">
-        <v>6137</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -74746,7 +74734,7 @@
         <v>5610</v>
       </c>
       <c r="C6" t="s">
-        <v>6138</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -74757,7 +74745,7 @@
         <v>5611</v>
       </c>
       <c r="C7" t="s">
-        <v>6139</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -74768,7 +74756,7 @@
         <v>5612</v>
       </c>
       <c r="C8" t="s">
-        <v>6140</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -74779,7 +74767,7 @@
         <v>5613</v>
       </c>
       <c r="C9" t="s">
-        <v>6141</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -74790,7 +74778,7 @@
         <v>5614</v>
       </c>
       <c r="C10" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -74801,7 +74789,7 @@
         <v>5615</v>
       </c>
       <c r="C11" t="s">
-        <v>6143</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -74812,7 +74800,7 @@
         <v>5616</v>
       </c>
       <c r="C12" t="s">
-        <v>6144</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -74823,7 +74811,7 @@
         <v>5617</v>
       </c>
       <c r="C13" t="s">
-        <v>6145</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -74834,7 +74822,7 @@
         <v>5618</v>
       </c>
       <c r="C14" t="s">
-        <v>6146</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -74845,7 +74833,7 @@
         <v>5619</v>
       </c>
       <c r="C15" t="s">
-        <v>6147</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -74856,7 +74844,7 @@
         <v>5620</v>
       </c>
       <c r="C16" t="s">
-        <v>6148</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -74867,7 +74855,7 @@
         <v>5621</v>
       </c>
       <c r="C17" t="s">
-        <v>6149</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -74878,7 +74866,7 @@
         <v>5622</v>
       </c>
       <c r="C18" t="s">
-        <v>6150</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -74889,7 +74877,7 @@
         <v>5623</v>
       </c>
       <c r="C19" t="s">
-        <v>6151</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -74900,7 +74888,7 @@
         <v>5624</v>
       </c>
       <c r="C20" t="s">
-        <v>6152</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -74911,7 +74899,7 @@
         <v>5625</v>
       </c>
       <c r="C21" t="s">
-        <v>6153</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -74922,7 +74910,7 @@
         <v>5626</v>
       </c>
       <c r="C22" t="s">
-        <v>6154</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -74933,7 +74921,7 @@
         <v>5627</v>
       </c>
       <c r="C23" t="s">
-        <v>6155</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -74944,7 +74932,7 @@
         <v>5628</v>
       </c>
       <c r="C24" t="s">
-        <v>6156</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -74955,7 +74943,7 @@
         <v>5629</v>
       </c>
       <c r="C25" t="s">
-        <v>6157</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -74966,7 +74954,7 @@
         <v>5630</v>
       </c>
       <c r="C26" t="s">
-        <v>6158</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -74977,7 +74965,7 @@
         <v>5631</v>
       </c>
       <c r="C27" t="s">
-        <v>6159</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -74988,7 +74976,7 @@
         <v>5632</v>
       </c>
       <c r="C28" t="s">
-        <v>6160</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -74999,7 +74987,7 @@
         <v>5633</v>
       </c>
       <c r="C29" t="s">
-        <v>6161</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -75010,7 +74998,7 @@
         <v>5634</v>
       </c>
       <c r="C30" t="s">
-        <v>6162</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -75021,7 +75009,7 @@
         <v>5635</v>
       </c>
       <c r="C31" t="s">
-        <v>6163</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -75032,7 +75020,7 @@
         <v>5636</v>
       </c>
       <c r="C32" t="s">
-        <v>6164</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -75043,7 +75031,7 @@
         <v>5637</v>
       </c>
       <c r="C33" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -75054,7 +75042,7 @@
         <v>5638</v>
       </c>
       <c r="C34" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -75065,7 +75053,7 @@
         <v>5639</v>
       </c>
       <c r="C35" t="s">
-        <v>6167</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -75076,7 +75064,7 @@
         <v>5640</v>
       </c>
       <c r="C36" t="s">
-        <v>6168</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -75087,7 +75075,7 @@
         <v>5641</v>
       </c>
       <c r="C37" t="s">
-        <v>6169</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -75098,7 +75086,7 @@
         <v>5642</v>
       </c>
       <c r="C38" t="s">
-        <v>6170</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -75109,7 +75097,7 @@
         <v>5643</v>
       </c>
       <c r="C39" t="s">
-        <v>6171</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -75120,7 +75108,7 @@
         <v>5644</v>
       </c>
       <c r="C40" t="s">
-        <v>6172</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -75131,7 +75119,7 @@
         <v>5645</v>
       </c>
       <c r="C41" t="s">
-        <v>6173</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -75142,7 +75130,7 @@
         <v>5646</v>
       </c>
       <c r="C42" t="s">
-        <v>6174</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -75153,7 +75141,7 @@
         <v>5647</v>
       </c>
       <c r="C43" t="s">
-        <v>6175</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -75164,7 +75152,7 @@
         <v>5648</v>
       </c>
       <c r="C44" t="s">
-        <v>6176</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -75175,7 +75163,7 @@
         <v>5649</v>
       </c>
       <c r="C45" t="s">
-        <v>6177</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -75186,7 +75174,7 @@
         <v>5650</v>
       </c>
       <c r="C46" t="s">
-        <v>6178</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -75197,7 +75185,7 @@
         <v>5651</v>
       </c>
       <c r="C47" t="s">
-        <v>6179</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -75208,7 +75196,7 @@
         <v>5652</v>
       </c>
       <c r="C48" t="s">
-        <v>6180</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -75219,7 +75207,7 @@
         <v>5653</v>
       </c>
       <c r="C49" t="s">
-        <v>6181</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -75230,7 +75218,7 @@
         <v>5654</v>
       </c>
       <c r="C50" t="s">
-        <v>6182</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -75241,7 +75229,7 @@
         <v>5655</v>
       </c>
       <c r="C51" t="s">
-        <v>6183</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -75252,7 +75240,7 @@
         <v>5656</v>
       </c>
       <c r="C52" t="s">
-        <v>6184</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -75263,7 +75251,7 @@
         <v>5657</v>
       </c>
       <c r="C53" t="s">
-        <v>6185</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -75274,7 +75262,7 @@
         <v>5658</v>
       </c>
       <c r="C54" t="s">
-        <v>6186</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -75285,7 +75273,7 @@
         <v>5659</v>
       </c>
       <c r="C55" t="s">
-        <v>6187</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -75296,7 +75284,7 @@
         <v>5660</v>
       </c>
       <c r="C56" t="s">
-        <v>6188</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -75307,7 +75295,7 @@
         <v>5661</v>
       </c>
       <c r="C57" t="s">
-        <v>6189</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -75318,7 +75306,7 @@
         <v>5662</v>
       </c>
       <c r="C58" t="s">
-        <v>6190</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -75329,7 +75317,7 @@
         <v>5663</v>
       </c>
       <c r="C59" t="s">
-        <v>6191</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -75340,7 +75328,7 @@
         <v>5664</v>
       </c>
       <c r="C60" t="s">
-        <v>6192</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -75351,7 +75339,7 @@
         <v>5665</v>
       </c>
       <c r="C61" t="s">
-        <v>6193</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -75362,7 +75350,7 @@
         <v>5666</v>
       </c>
       <c r="C62" t="s">
-        <v>6194</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -75373,7 +75361,7 @@
         <v>5667</v>
       </c>
       <c r="C63" t="s">
-        <v>6195</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -75384,7 +75372,7 @@
         <v>5668</v>
       </c>
       <c r="C64" t="s">
-        <v>6196</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -75395,7 +75383,7 @@
         <v>5669</v>
       </c>
       <c r="C65" t="s">
-        <v>6197</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -75406,7 +75394,7 @@
         <v>5670</v>
       </c>
       <c r="C66" t="s">
-        <v>6198</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -75417,7 +75405,7 @@
         <v>5671</v>
       </c>
       <c r="C67" t="s">
-        <v>6199</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -75428,7 +75416,7 @@
         <v>5672</v>
       </c>
       <c r="C68" t="s">
-        <v>6200</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -75439,7 +75427,7 @@
         <v>5673</v>
       </c>
       <c r="C69" t="s">
-        <v>6201</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -75450,7 +75438,7 @@
         <v>5674</v>
       </c>
       <c r="C70" t="s">
-        <v>6202</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -75461,7 +75449,7 @@
         <v>5675</v>
       </c>
       <c r="C71" t="s">
-        <v>6203</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -75472,7 +75460,7 @@
         <v>5676</v>
       </c>
       <c r="C72" t="s">
-        <v>6204</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -75483,7 +75471,7 @@
         <v>5677</v>
       </c>
       <c r="C73" t="s">
-        <v>6205</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -75494,7 +75482,7 @@
         <v>5678</v>
       </c>
       <c r="C74" t="s">
-        <v>6206</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -75505,7 +75493,7 @@
         <v>5679</v>
       </c>
       <c r="C75" t="s">
-        <v>6207</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
@@ -75516,7 +75504,7 @@
         <v>5680</v>
       </c>
       <c r="C76" t="s">
-        <v>6208</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -75527,7 +75515,7 @@
         <v>5681</v>
       </c>
       <c r="C77" t="s">
-        <v>6209</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -75538,7 +75526,7 @@
         <v>5682</v>
       </c>
       <c r="C78" t="s">
-        <v>6210</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -75549,7 +75537,7 @@
         <v>5683</v>
       </c>
       <c r="C79" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -75560,7 +75548,7 @@
         <v>5684</v>
       </c>
       <c r="C80" t="s">
-        <v>6212</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -75571,7 +75559,7 @@
         <v>5685</v>
       </c>
       <c r="C81" t="s">
-        <v>6213</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -75582,7 +75570,7 @@
         <v>5686</v>
       </c>
       <c r="C82" t="s">
-        <v>6214</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -75593,7 +75581,7 @@
         <v>5687</v>
       </c>
       <c r="C83" t="s">
-        <v>6215</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -75604,7 +75592,7 @@
         <v>5688</v>
       </c>
       <c r="C84" t="s">
-        <v>6216</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -75615,7 +75603,7 @@
         <v>5689</v>
       </c>
       <c r="C85" t="s">
-        <v>6217</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -75626,7 +75614,7 @@
         <v>5690</v>
       </c>
       <c r="C86" t="s">
-        <v>6218</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -75637,7 +75625,7 @@
         <v>5691</v>
       </c>
       <c r="C87" t="s">
-        <v>6219</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -75648,7 +75636,7 @@
         <v>5692</v>
       </c>
       <c r="C88" t="s">
-        <v>6220</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -75659,7 +75647,7 @@
         <v>5693</v>
       </c>
       <c r="C89" t="s">
-        <v>6221</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -75670,7 +75658,7 @@
         <v>5694</v>
       </c>
       <c r="C90" t="s">
-        <v>6222</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -75681,7 +75669,7 @@
         <v>5695</v>
       </c>
       <c r="C91" t="s">
-        <v>6223</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -75692,7 +75680,7 @@
         <v>5696</v>
       </c>
       <c r="C92" t="s">
-        <v>6224</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -75703,7 +75691,7 @@
         <v>5697</v>
       </c>
       <c r="C93" t="s">
-        <v>6225</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -75714,7 +75702,7 @@
         <v>5698</v>
       </c>
       <c r="C94" t="s">
-        <v>6226</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -75725,7 +75713,7 @@
         <v>5699</v>
       </c>
       <c r="C95" t="s">
-        <v>6227</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -75736,7 +75724,7 @@
         <v>5700</v>
       </c>
       <c r="C96" t="s">
-        <v>6228</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -75747,7 +75735,7 @@
         <v>5701</v>
       </c>
       <c r="C97" t="s">
-        <v>6229</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -75758,7 +75746,7 @@
         <v>5702</v>
       </c>
       <c r="C98" t="s">
-        <v>6230</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -75769,7 +75757,7 @@
         <v>5703</v>
       </c>
       <c r="C99" t="s">
-        <v>6231</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -75780,7 +75768,7 @@
         <v>5704</v>
       </c>
       <c r="C100" t="s">
-        <v>6232</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -75791,7 +75779,7 @@
         <v>5705</v>
       </c>
       <c r="C101" t="s">
-        <v>6233</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -75802,7 +75790,7 @@
         <v>5706</v>
       </c>
       <c r="C102" t="s">
-        <v>6234</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -75813,7 +75801,7 @@
         <v>5707</v>
       </c>
       <c r="C103" t="s">
-        <v>6235</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -75824,7 +75812,7 @@
         <v>5708</v>
       </c>
       <c r="C104" t="s">
-        <v>6236</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -75835,7 +75823,7 @@
         <v>5709</v>
       </c>
       <c r="C105" t="s">
-        <v>6237</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -75846,7 +75834,7 @@
         <v>5710</v>
       </c>
       <c r="C106" t="s">
-        <v>6238</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -75857,7 +75845,7 @@
         <v>5711</v>
       </c>
       <c r="C107" t="s">
-        <v>6239</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -75868,7 +75856,7 @@
         <v>5712</v>
       </c>
       <c r="C108" t="s">
-        <v>6240</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -75879,7 +75867,7 @@
         <v>5713</v>
       </c>
       <c r="C109" t="s">
-        <v>6241</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -75890,7 +75878,7 @@
         <v>5714</v>
       </c>
       <c r="C110" t="s">
-        <v>6242</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -75901,7 +75889,7 @@
         <v>5715</v>
       </c>
       <c r="C111" t="s">
-        <v>6243</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -75912,7 +75900,7 @@
         <v>5716</v>
       </c>
       <c r="C112" t="s">
-        <v>6244</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -75923,7 +75911,7 @@
         <v>5717</v>
       </c>
       <c r="C113" t="s">
-        <v>6245</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -75934,7 +75922,7 @@
         <v>5718</v>
       </c>
       <c r="C114" t="s">
-        <v>6246</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -75945,7 +75933,7 @@
         <v>5719</v>
       </c>
       <c r="C115" t="s">
-        <v>6247</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -75956,7 +75944,7 @@
         <v>5720</v>
       </c>
       <c r="C116" t="s">
-        <v>6248</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -75967,7 +75955,7 @@
         <v>5721</v>
       </c>
       <c r="C117" t="s">
-        <v>6249</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -75978,7 +75966,7 @@
         <v>5722</v>
       </c>
       <c r="C118" t="s">
-        <v>6250</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -75989,7 +75977,7 @@
         <v>5723</v>
       </c>
       <c r="C119" t="s">
-        <v>6251</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -76000,7 +75988,7 @@
         <v>5724</v>
       </c>
       <c r="C120" t="s">
-        <v>6252</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -76011,7 +75999,7 @@
         <v>5725</v>
       </c>
       <c r="C121" t="s">
-        <v>6253</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -76022,7 +76010,7 @@
         <v>5726</v>
       </c>
       <c r="C122" t="s">
-        <v>6254</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -76033,7 +76021,7 @@
         <v>5727</v>
       </c>
       <c r="C123" t="s">
-        <v>6255</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -76044,7 +76032,7 @@
         <v>5728</v>
       </c>
       <c r="C124" t="s">
-        <v>6256</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -76055,7 +76043,7 @@
         <v>5729</v>
       </c>
       <c r="C125" t="s">
-        <v>6257</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -76066,7 +76054,7 @@
         <v>5730</v>
       </c>
       <c r="C126" t="s">
-        <v>6258</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -76077,7 +76065,7 @@
         <v>5731</v>
       </c>
       <c r="C127" t="s">
-        <v>6259</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -76088,7 +76076,7 @@
         <v>5732</v>
       </c>
       <c r="C128" t="s">
-        <v>6260</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -76099,7 +76087,7 @@
         <v>5733</v>
       </c>
       <c r="C129" t="s">
-        <v>6261</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -76110,7 +76098,7 @@
         <v>5734</v>
       </c>
       <c r="C130" t="s">
-        <v>6262</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -76121,7 +76109,7 @@
         <v>5735</v>
       </c>
       <c r="C131" t="s">
-        <v>6263</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -76132,7 +76120,7 @@
         <v>5736</v>
       </c>
       <c r="C132" t="s">
-        <v>6264</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -76143,7 +76131,7 @@
         <v>5737</v>
       </c>
       <c r="C133" t="s">
-        <v>6265</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -76154,7 +76142,7 @@
         <v>5738</v>
       </c>
       <c r="C134" t="s">
-        <v>6266</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -76165,7 +76153,7 @@
         <v>5739</v>
       </c>
       <c r="C135" t="s">
-        <v>6267</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -76176,7 +76164,7 @@
         <v>5740</v>
       </c>
       <c r="C136" t="s">
-        <v>6268</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -76187,7 +76175,7 @@
         <v>5741</v>
       </c>
       <c r="C137" t="s">
-        <v>6269</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -76198,7 +76186,7 @@
         <v>5742</v>
       </c>
       <c r="C138" t="s">
-        <v>6270</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -76209,7 +76197,7 @@
         <v>5743</v>
       </c>
       <c r="C139" t="s">
-        <v>6271</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -76220,7 +76208,7 @@
         <v>5744</v>
       </c>
       <c r="C140" t="s">
-        <v>6272</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -76231,7 +76219,7 @@
         <v>5745</v>
       </c>
       <c r="C141" t="s">
-        <v>6273</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -76242,7 +76230,7 @@
         <v>5746</v>
       </c>
       <c r="C142" t="s">
-        <v>6274</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -76253,7 +76241,7 @@
         <v>5747</v>
       </c>
       <c r="C143" t="s">
-        <v>6275</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -76264,7 +76252,7 @@
         <v>5748</v>
       </c>
       <c r="C144" t="s">
-        <v>6276</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -76275,7 +76263,7 @@
         <v>5749</v>
       </c>
       <c r="C145" t="s">
-        <v>6277</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -76286,7 +76274,7 @@
         <v>5750</v>
       </c>
       <c r="C146" t="s">
-        <v>6278</v>
+        <v>6276</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -76297,7 +76285,7 @@
         <v>5751</v>
       </c>
       <c r="C147" t="s">
-        <v>6279</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -76308,7 +76296,7 @@
         <v>5752</v>
       </c>
       <c r="C148" t="s">
-        <v>6280</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -76319,7 +76307,7 @@
         <v>5753</v>
       </c>
       <c r="C149" t="s">
-        <v>6281</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -76330,7 +76318,7 @@
         <v>5754</v>
       </c>
       <c r="C150" t="s">
-        <v>6282</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" customHeight="1">
@@ -76341,7 +76329,7 @@
         <v>5755</v>
       </c>
       <c r="C151" t="s">
-        <v>6283</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -76352,7 +76340,7 @@
         <v>5756</v>
       </c>
       <c r="C152" t="s">
-        <v>6284</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -76363,7 +76351,7 @@
         <v>5757</v>
       </c>
       <c r="C153" t="s">
-        <v>6285</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -76374,7 +76362,7 @@
         <v>5758</v>
       </c>
       <c r="C154" t="s">
-        <v>6286</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -76385,7 +76373,7 @@
         <v>5759</v>
       </c>
       <c r="C155" t="s">
-        <v>6287</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -76396,7 +76384,7 @@
         <v>5760</v>
       </c>
       <c r="C156" t="s">
-        <v>6288</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -76407,7 +76395,7 @@
         <v>5761</v>
       </c>
       <c r="C157" t="s">
-        <v>6289</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -76418,7 +76406,7 @@
         <v>5762</v>
       </c>
       <c r="C158" t="s">
-        <v>6290</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -76429,7 +76417,7 @@
         <v>5763</v>
       </c>
       <c r="C159" t="s">
-        <v>6291</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -76440,7 +76428,7 @@
         <v>5764</v>
       </c>
       <c r="C160" t="s">
-        <v>6292</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -76451,7 +76439,7 @@
         <v>5765</v>
       </c>
       <c r="C161" t="s">
-        <v>6293</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -76462,7 +76450,7 @@
         <v>5766</v>
       </c>
       <c r="C162" t="s">
-        <v>6294</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -76473,7 +76461,7 @@
         <v>5767</v>
       </c>
       <c r="C163" t="s">
-        <v>6295</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -76484,7 +76472,7 @@
         <v>5768</v>
       </c>
       <c r="C164" t="s">
-        <v>6296</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -76495,7 +76483,7 @@
         <v>5769</v>
       </c>
       <c r="C165" t="s">
-        <v>6297</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -76506,7 +76494,7 @@
         <v>5770</v>
       </c>
       <c r="C166" t="s">
-        <v>6298</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -76517,7 +76505,7 @@
         <v>5771</v>
       </c>
       <c r="C167" t="s">
-        <v>6299</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -76528,7 +76516,7 @@
         <v>5772</v>
       </c>
       <c r="C168" t="s">
-        <v>6300</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -76539,7 +76527,7 @@
         <v>5773</v>
       </c>
       <c r="C169" t="s">
-        <v>6301</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -76550,7 +76538,7 @@
         <v>5774</v>
       </c>
       <c r="C170" t="s">
-        <v>6302</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -76561,7 +76549,7 @@
         <v>5775</v>
       </c>
       <c r="C171" t="s">
-        <v>6303</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -76572,7 +76560,7 @@
         <v>5776</v>
       </c>
       <c r="C172" t="s">
-        <v>6304</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -76583,7 +76571,7 @@
         <v>5777</v>
       </c>
       <c r="C173" t="s">
-        <v>6305</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -76594,7 +76582,7 @@
         <v>5778</v>
       </c>
       <c r="C174" t="s">
-        <v>6306</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -76605,7 +76593,7 @@
         <v>5779</v>
       </c>
       <c r="C175" t="s">
-        <v>6307</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -76616,7 +76604,7 @@
         <v>5780</v>
       </c>
       <c r="C176" t="s">
-        <v>6308</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -76627,7 +76615,7 @@
         <v>5781</v>
       </c>
       <c r="C177" t="s">
-        <v>6309</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -76638,7 +76626,7 @@
         <v>5782</v>
       </c>
       <c r="C178" t="s">
-        <v>6310</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -76649,7 +76637,7 @@
         <v>5783</v>
       </c>
       <c r="C179" t="s">
-        <v>6311</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -76660,7 +76648,7 @@
         <v>5784</v>
       </c>
       <c r="C180" t="s">
-        <v>6312</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -76671,7 +76659,7 @@
         <v>5785</v>
       </c>
       <c r="C181" t="s">
-        <v>6313</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -76682,7 +76670,7 @@
         <v>5786</v>
       </c>
       <c r="C182" t="s">
-        <v>6314</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -76693,7 +76681,7 @@
         <v>5787</v>
       </c>
       <c r="C183" t="s">
-        <v>6315</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -76704,7 +76692,7 @@
         <v>5788</v>
       </c>
       <c r="C184" t="s">
-        <v>6316</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -76715,7 +76703,7 @@
         <v>5789</v>
       </c>
       <c r="C185" t="s">
-        <v>6317</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -76726,7 +76714,7 @@
         <v>5790</v>
       </c>
       <c r="C186" t="s">
-        <v>6318</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -76737,7 +76725,7 @@
         <v>5791</v>
       </c>
       <c r="C187" t="s">
-        <v>6319</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -76748,7 +76736,7 @@
         <v>5792</v>
       </c>
       <c r="C188" t="s">
-        <v>6320</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -76759,7 +76747,7 @@
         <v>5793</v>
       </c>
       <c r="C189" t="s">
-        <v>6321</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -76770,7 +76758,7 @@
         <v>5794</v>
       </c>
       <c r="C190" t="s">
-        <v>6322</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -76781,7 +76769,7 @@
         <v>5795</v>
       </c>
       <c r="C191" t="s">
-        <v>6323</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -76792,7 +76780,7 @@
         <v>5796</v>
       </c>
       <c r="C192" t="s">
-        <v>6324</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -76803,3709 +76791,3687 @@
         <v>5797</v>
       </c>
       <c r="C193" t="s">
-        <v>6325</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="85" t="s">
-        <v>2013</v>
+      <c r="A194" s="81" t="s">
+        <v>2015</v>
       </c>
       <c r="B194" s="79" t="s">
         <v>5798</v>
       </c>
       <c r="C194" t="s">
-        <v>6326</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="81" t="s">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B195" s="79" t="s">
         <v>5799</v>
       </c>
       <c r="C195" t="s">
-        <v>6327</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="81" t="s">
-        <v>2016</v>
+        <v>2029</v>
       </c>
       <c r="B196" s="79" t="s">
         <v>5800</v>
       </c>
       <c r="C196" t="s">
-        <v>6328</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="81" t="s">
-        <v>2020</v>
+        <v>2098</v>
       </c>
       <c r="B197" s="79" t="s">
         <v>5801</v>
       </c>
       <c r="C197" t="s">
-        <v>6329</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="81" t="s">
-        <v>2029</v>
+        <v>2102</v>
       </c>
       <c r="B198" s="79" t="s">
         <v>5802</v>
       </c>
       <c r="C198" t="s">
-        <v>6330</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="81" t="s">
-        <v>2098</v>
+        <v>2122</v>
       </c>
       <c r="B199" s="79" t="s">
         <v>5803</v>
       </c>
       <c r="C199" t="s">
-        <v>6331</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="81" t="s">
-        <v>2102</v>
+        <v>2134</v>
       </c>
       <c r="B200" s="79" t="s">
         <v>5804</v>
       </c>
       <c r="C200" t="s">
-        <v>6332</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="81" t="s">
-        <v>2122</v>
+        <v>2142</v>
       </c>
       <c r="B201" s="79" t="s">
         <v>5805</v>
       </c>
       <c r="C201" t="s">
-        <v>6333</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="81" t="s">
-        <v>2134</v>
+        <v>2155</v>
       </c>
       <c r="B202" s="79" t="s">
         <v>5806</v>
       </c>
       <c r="C202" t="s">
-        <v>6334</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="81" t="s">
-        <v>2142</v>
+        <v>2160</v>
       </c>
       <c r="B203" s="79" t="s">
         <v>5807</v>
       </c>
       <c r="C203" t="s">
-        <v>6335</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="81" t="s">
-        <v>2155</v>
+        <v>2168</v>
       </c>
       <c r="B204" s="79" t="s">
         <v>5808</v>
       </c>
       <c r="C204" t="s">
-        <v>6336</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="81" t="s">
-        <v>2160</v>
+        <v>2174</v>
       </c>
       <c r="B205" s="79" t="s">
         <v>5809</v>
       </c>
       <c r="C205" t="s">
-        <v>6337</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="81" t="s">
-        <v>2168</v>
+        <v>2181</v>
       </c>
       <c r="B206" s="79" t="s">
         <v>5810</v>
       </c>
       <c r="C206" t="s">
-        <v>6338</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="81" t="s">
-        <v>2174</v>
+        <v>2187</v>
       </c>
       <c r="B207" s="79" t="s">
         <v>5811</v>
       </c>
       <c r="C207" t="s">
-        <v>6339</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="81" t="s">
-        <v>2181</v>
+        <v>2198</v>
       </c>
       <c r="B208" s="79" t="s">
         <v>5812</v>
       </c>
       <c r="C208" t="s">
-        <v>6340</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="81" t="s">
-        <v>2187</v>
+        <v>2209</v>
       </c>
       <c r="B209" s="79" t="s">
         <v>5813</v>
       </c>
       <c r="C209" t="s">
-        <v>6341</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="81" t="s">
-        <v>2198</v>
+        <v>2215</v>
       </c>
       <c r="B210" s="79" t="s">
         <v>5814</v>
       </c>
       <c r="C210" t="s">
-        <v>6342</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="81" t="s">
-        <v>2209</v>
+        <v>2229</v>
       </c>
       <c r="B211" s="79" t="s">
         <v>5815</v>
       </c>
       <c r="C211" t="s">
-        <v>6343</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="81" t="s">
-        <v>2215</v>
+        <v>2236</v>
       </c>
       <c r="B212" s="79" t="s">
         <v>5816</v>
       </c>
       <c r="C212" t="s">
-        <v>6344</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="81" t="s">
-        <v>2229</v>
+        <v>2274</v>
       </c>
       <c r="B213" s="79" t="s">
         <v>5817</v>
       </c>
       <c r="C213" t="s">
-        <v>6345</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="81" t="s">
-        <v>2236</v>
+        <v>2276</v>
       </c>
       <c r="B214" s="79" t="s">
         <v>5818</v>
       </c>
       <c r="C214" t="s">
-        <v>6346</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="81" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="B215" s="79" t="s">
         <v>5819</v>
       </c>
       <c r="C215" t="s">
-        <v>6347</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="81" t="s">
-        <v>2276</v>
+      <c r="A216" s="84" t="s">
+        <v>2280</v>
       </c>
       <c r="B216" s="79" t="s">
         <v>5820</v>
       </c>
       <c r="C216" t="s">
-        <v>6348</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="81" t="s">
-        <v>2278</v>
+      <c r="A217" s="84" t="s">
+        <v>2287</v>
       </c>
       <c r="B217" s="79" t="s">
         <v>5821</v>
       </c>
       <c r="C217" t="s">
-        <v>6349</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="84" t="s">
-        <v>2280</v>
+      <c r="A218" s="81" t="s">
+        <v>2289</v>
       </c>
       <c r="B218" s="79" t="s">
         <v>5822</v>
       </c>
       <c r="C218" t="s">
-        <v>6350</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="84" t="s">
-        <v>2287</v>
+      <c r="A219" s="81" t="s">
+        <v>2290</v>
       </c>
       <c r="B219" s="79" t="s">
         <v>5823</v>
       </c>
       <c r="C219" t="s">
-        <v>6351</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="81" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
       <c r="B220" s="79" t="s">
         <v>5824</v>
       </c>
       <c r="C220" t="s">
-        <v>6352</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="81" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="B221" s="79" t="s">
         <v>5825</v>
       </c>
       <c r="C221" t="s">
-        <v>6353</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="81" t="s">
-        <v>2296</v>
+      <c r="A222" s="85" t="s">
+        <v>2302</v>
       </c>
       <c r="B222" s="79" t="s">
         <v>5826</v>
       </c>
       <c r="C222" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="81" t="s">
-        <v>2298</v>
+        <v>2314</v>
       </c>
       <c r="B223" s="79" t="s">
         <v>5827</v>
       </c>
       <c r="C223" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="85" t="s">
-        <v>2302</v>
+      <c r="A224" s="81" t="s">
+        <v>2320</v>
       </c>
       <c r="B224" s="79" t="s">
         <v>5828</v>
       </c>
       <c r="C224" t="s">
-        <v>6356</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="81" t="s">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="B225" s="79" t="s">
         <v>5829</v>
       </c>
       <c r="C225" t="s">
-        <v>6357</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="81" t="s">
-        <v>2320</v>
+        <v>2331</v>
       </c>
       <c r="B226" s="79" t="s">
         <v>5830</v>
       </c>
       <c r="C226" t="s">
-        <v>6358</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="81" t="s">
-        <v>2322</v>
+      <c r="A227" s="85" t="s">
+        <v>2335</v>
       </c>
       <c r="B227" s="79" t="s">
         <v>5831</v>
       </c>
       <c r="C227" t="s">
-        <v>6359</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="81" t="s">
-        <v>2331</v>
+        <v>2341</v>
       </c>
       <c r="B228" s="79" t="s">
         <v>5832</v>
       </c>
       <c r="C228" t="s">
-        <v>6360</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="85" t="s">
-        <v>2335</v>
+      <c r="A229" s="81" t="s">
+        <v>2354</v>
       </c>
       <c r="B229" s="79" t="s">
         <v>5833</v>
       </c>
       <c r="C229" t="s">
-        <v>6361</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="81" t="s">
-        <v>2341</v>
+        <v>2356</v>
       </c>
       <c r="B230" s="79" t="s">
         <v>5834</v>
       </c>
       <c r="C230" t="s">
-        <v>6362</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="81" t="s">
-        <v>2354</v>
+        <v>2364</v>
       </c>
       <c r="B231" s="79" t="s">
         <v>5835</v>
       </c>
       <c r="C231" t="s">
-        <v>6363</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="81" t="s">
-        <v>2356</v>
+        <v>2371</v>
       </c>
       <c r="B232" s="79" t="s">
         <v>5836</v>
       </c>
       <c r="C232" t="s">
-        <v>6364</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="81" t="s">
-        <v>2364</v>
+      <c r="A233" s="85" t="s">
+        <v>2388</v>
       </c>
       <c r="B233" s="79" t="s">
         <v>5837</v>
       </c>
       <c r="C233" t="s">
-        <v>6365</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="81" t="s">
-        <v>2371</v>
+      <c r="A234" s="82" t="s">
+        <v>2392</v>
       </c>
       <c r="B234" s="79" t="s">
         <v>5838</v>
       </c>
       <c r="C234" t="s">
-        <v>6366</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="85" t="s">
-        <v>2388</v>
+      <c r="A235" s="81" t="s">
+        <v>2435</v>
       </c>
       <c r="B235" s="79" t="s">
         <v>5839</v>
       </c>
       <c r="C235" t="s">
-        <v>6367</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="82" t="s">
-        <v>2392</v>
+      <c r="A236" s="81" t="s">
+        <v>2437</v>
       </c>
       <c r="B236" s="79" t="s">
         <v>5840</v>
       </c>
       <c r="C236" t="s">
-        <v>6368</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="81" t="s">
-        <v>2435</v>
+        <v>2453</v>
       </c>
       <c r="B237" s="79" t="s">
         <v>5841</v>
       </c>
       <c r="C237" t="s">
-        <v>6369</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="81" t="s">
-        <v>2437</v>
+        <v>2455</v>
       </c>
       <c r="B238" s="79" t="s">
         <v>5842</v>
       </c>
       <c r="C238" t="s">
-        <v>6370</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="81" t="s">
-        <v>2453</v>
+        <v>2470</v>
       </c>
       <c r="B239" s="79" t="s">
         <v>5843</v>
       </c>
       <c r="C239" t="s">
-        <v>6371</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="81" t="s">
-        <v>2455</v>
+        <v>2476</v>
       </c>
       <c r="B240" s="79" t="s">
         <v>5844</v>
       </c>
       <c r="C240" t="s">
-        <v>6372</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="81" t="s">
-        <v>2470</v>
+        <v>2478</v>
       </c>
       <c r="B241" s="79" t="s">
         <v>5845</v>
       </c>
       <c r="C241" t="s">
-        <v>6373</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="81" t="s">
-        <v>2476</v>
+        <v>2487</v>
       </c>
       <c r="B242" s="79" t="s">
         <v>5846</v>
       </c>
       <c r="C242" t="s">
-        <v>6374</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="81" t="s">
-        <v>2478</v>
+        <v>2489</v>
       </c>
       <c r="B243" s="79" t="s">
         <v>5847</v>
       </c>
       <c r="C243" t="s">
-        <v>6375</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="81" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="B244" s="79" t="s">
         <v>5848</v>
       </c>
       <c r="C244" t="s">
-        <v>6376</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="81" t="s">
-        <v>2489</v>
+        <v>2494</v>
       </c>
       <c r="B245" s="79" t="s">
         <v>5849</v>
       </c>
       <c r="C245" t="s">
-        <v>6377</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="81" t="s">
-        <v>2491</v>
+        <v>2500</v>
       </c>
       <c r="B246" s="79" t="s">
         <v>5850</v>
       </c>
       <c r="C246" t="s">
-        <v>6378</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="81" t="s">
-        <v>2494</v>
+        <v>2502</v>
       </c>
       <c r="B247" s="79" t="s">
         <v>5851</v>
       </c>
       <c r="C247" t="s">
-        <v>6379</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="81" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="B248" s="79" t="s">
         <v>5852</v>
       </c>
       <c r="C248" t="s">
-        <v>6380</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="81" t="s">
-        <v>2502</v>
+        <v>2537</v>
       </c>
       <c r="B249" s="79" t="s">
         <v>5853</v>
       </c>
       <c r="C249" t="s">
-        <v>6381</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="81" t="s">
-        <v>2506</v>
+        <v>2557</v>
       </c>
       <c r="B250" s="79" t="s">
         <v>5854</v>
       </c>
       <c r="C250" t="s">
-        <v>6382</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="81" t="s">
-        <v>2537</v>
+        <v>2562</v>
       </c>
       <c r="B251" s="79" t="s">
         <v>5855</v>
       </c>
       <c r="C251" t="s">
-        <v>6383</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="81" t="s">
-        <v>2557</v>
+        <v>2572</v>
       </c>
       <c r="B252" s="79" t="s">
         <v>5856</v>
       </c>
       <c r="C252" t="s">
-        <v>6384</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="81" t="s">
-        <v>2562</v>
+        <v>2599</v>
       </c>
       <c r="B253" s="79" t="s">
         <v>5857</v>
       </c>
       <c r="C253" t="s">
-        <v>6385</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="81" t="s">
-        <v>2572</v>
+        <v>2633</v>
       </c>
       <c r="B254" s="79" t="s">
         <v>5858</v>
       </c>
       <c r="C254" t="s">
-        <v>6386</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="81" t="s">
-        <v>2599</v>
+        <v>2648</v>
       </c>
       <c r="B255" s="79" t="s">
         <v>5859</v>
       </c>
       <c r="C255" t="s">
-        <v>6387</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="81" t="s">
-        <v>2633</v>
+        <v>2650</v>
       </c>
       <c r="B256" s="79" t="s">
         <v>5860</v>
       </c>
       <c r="C256" t="s">
-        <v>6388</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="81" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="B257" s="79" t="s">
         <v>5861</v>
       </c>
       <c r="C257" t="s">
-        <v>6389</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="81" t="s">
-        <v>2650</v>
+        <v>2659</v>
       </c>
       <c r="B258" s="79" t="s">
         <v>5862</v>
       </c>
       <c r="C258" t="s">
-        <v>6390</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="81" t="s">
-        <v>2652</v>
+        <v>2672</v>
       </c>
       <c r="B259" s="79" t="s">
         <v>5863</v>
       </c>
       <c r="C259" t="s">
-        <v>6391</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="81" t="s">
-        <v>2659</v>
+        <v>2683</v>
       </c>
       <c r="B260" s="79" t="s">
         <v>5864</v>
       </c>
       <c r="C260" t="s">
-        <v>6392</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="81" t="s">
-        <v>2672</v>
+        <v>2694</v>
       </c>
       <c r="B261" s="79" t="s">
         <v>5865</v>
       </c>
       <c r="C261" t="s">
-        <v>6393</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="81" t="s">
-        <v>2683</v>
+        <v>2709</v>
       </c>
       <c r="B262" s="79" t="s">
         <v>5866</v>
       </c>
       <c r="C262" t="s">
-        <v>6394</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="81" t="s">
-        <v>2694</v>
+        <v>2713</v>
       </c>
       <c r="B263" s="79" t="s">
         <v>5867</v>
       </c>
       <c r="C263" t="s">
-        <v>6395</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="81" t="s">
-        <v>2709</v>
+        <v>2736</v>
       </c>
       <c r="B264" s="79" t="s">
         <v>5868</v>
       </c>
       <c r="C264" t="s">
-        <v>6396</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="81" t="s">
-        <v>2713</v>
+        <v>2744</v>
       </c>
       <c r="B265" s="79" t="s">
         <v>5869</v>
       </c>
       <c r="C265" t="s">
-        <v>6397</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="81" t="s">
-        <v>2736</v>
+        <v>2753</v>
       </c>
       <c r="B266" s="79" t="s">
         <v>5870</v>
       </c>
       <c r="C266" t="s">
-        <v>6398</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="81" t="s">
-        <v>2744</v>
+      <c r="A267" s="84" t="s">
+        <v>2755</v>
       </c>
       <c r="B267" s="79" t="s">
         <v>5871</v>
       </c>
       <c r="C267" t="s">
-        <v>6399</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="81" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="B268" s="79" t="s">
         <v>5872</v>
       </c>
       <c r="C268" t="s">
-        <v>6400</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="84" t="s">
-        <v>2755</v>
+      <c r="A269" s="81" t="s">
+        <v>2770</v>
       </c>
       <c r="B269" s="79" t="s">
         <v>5873</v>
       </c>
       <c r="C269" t="s">
-        <v>6401</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="81" t="s">
-        <v>2757</v>
+        <v>2790</v>
       </c>
       <c r="B270" s="79" t="s">
         <v>5874</v>
       </c>
       <c r="C270" t="s">
-        <v>6402</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="81" t="s">
-        <v>2770</v>
+        <v>2806</v>
       </c>
       <c r="B271" s="79" t="s">
         <v>5875</v>
       </c>
       <c r="C271" t="s">
-        <v>6403</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="81" t="s">
-        <v>2790</v>
+        <v>2808</v>
       </c>
       <c r="B272" s="79" t="s">
         <v>5876</v>
       </c>
       <c r="C272" t="s">
-        <v>6404</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="81" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="B273" s="79" t="s">
         <v>5877</v>
       </c>
       <c r="C273" t="s">
-        <v>6405</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="81" t="s">
-        <v>2808</v>
+        <v>2814</v>
       </c>
       <c r="B274" s="79" t="s">
         <v>5878</v>
       </c>
       <c r="C274" t="s">
-        <v>6406</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="81" t="s">
-        <v>2810</v>
+        <v>2819</v>
       </c>
       <c r="B275" s="79" t="s">
         <v>5879</v>
       </c>
       <c r="C275" t="s">
-        <v>6407</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="81" t="s">
-        <v>2814</v>
+        <v>2834</v>
       </c>
       <c r="B276" s="79" t="s">
         <v>5880</v>
       </c>
       <c r="C276" t="s">
-        <v>6408</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="81" t="s">
-        <v>2819</v>
+        <v>2861</v>
       </c>
       <c r="B277" s="79" t="s">
         <v>5881</v>
       </c>
       <c r="C277" t="s">
-        <v>6409</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="81" t="s">
-        <v>2834</v>
+        <v>2867</v>
       </c>
       <c r="B278" s="79" t="s">
         <v>5882</v>
       </c>
       <c r="C278" t="s">
-        <v>6410</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="81" t="s">
-        <v>2861</v>
+        <v>2869</v>
       </c>
       <c r="B279" s="79" t="s">
         <v>5883</v>
       </c>
       <c r="C279" t="s">
-        <v>6411</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="81" t="s">
-        <v>2867</v>
+        <v>2876</v>
       </c>
       <c r="B280" s="79" t="s">
         <v>5884</v>
       </c>
       <c r="C280" t="s">
-        <v>6412</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="81" t="s">
-        <v>2869</v>
+        <v>2881</v>
       </c>
       <c r="B281" s="79" t="s">
         <v>5885</v>
       </c>
       <c r="C281" t="s">
-        <v>6413</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="81" t="s">
-        <v>2876</v>
+        <v>2890</v>
       </c>
       <c r="B282" s="79" t="s">
         <v>5886</v>
       </c>
       <c r="C282" t="s">
-        <v>6414</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="81" t="s">
-        <v>2881</v>
+      <c r="A283" s="85" t="s">
+        <v>2909</v>
       </c>
       <c r="B283" s="79" t="s">
         <v>5887</v>
       </c>
       <c r="C283" t="s">
-        <v>6415</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="81" t="s">
-        <v>2890</v>
+        <v>2921</v>
       </c>
       <c r="B284" s="79" t="s">
         <v>5888</v>
       </c>
       <c r="C284" t="s">
-        <v>6416</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="85" t="s">
-        <v>2909</v>
+      <c r="A285" s="81" t="s">
+        <v>2929</v>
       </c>
       <c r="B285" s="79" t="s">
         <v>5889</v>
       </c>
       <c r="C285" t="s">
-        <v>6417</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="81" t="s">
-        <v>2921</v>
+        <v>2939</v>
       </c>
       <c r="B286" s="79" t="s">
         <v>5890</v>
       </c>
       <c r="C286" t="s">
-        <v>6418</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="81" t="s">
-        <v>2929</v>
+        <v>2961</v>
       </c>
       <c r="B287" s="79" t="s">
         <v>5891</v>
       </c>
       <c r="C287" t="s">
-        <v>6419</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="81" t="s">
-        <v>2939</v>
+      <c r="A288" s="84" t="s">
+        <v>2967</v>
       </c>
       <c r="B288" s="79" t="s">
         <v>5892</v>
       </c>
       <c r="C288" t="s">
-        <v>6420</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="81" t="s">
-        <v>2961</v>
+        <v>2985</v>
       </c>
       <c r="B289" s="79" t="s">
         <v>5893</v>
       </c>
       <c r="C289" t="s">
-        <v>6421</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="84" t="s">
-        <v>2967</v>
+      <c r="A290" s="81" t="s">
+        <v>2989</v>
       </c>
       <c r="B290" s="79" t="s">
         <v>5894</v>
       </c>
       <c r="C290" t="s">
-        <v>6422</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="81" t="s">
-        <v>2985</v>
+        <v>3004</v>
       </c>
       <c r="B291" s="79" t="s">
         <v>5895</v>
       </c>
       <c r="C291" t="s">
-        <v>6423</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="81" t="s">
-        <v>2989</v>
+      <c r="A292" s="84" t="s">
+        <v>3020</v>
       </c>
       <c r="B292" s="79" t="s">
         <v>5896</v>
       </c>
       <c r="C292" t="s">
-        <v>6424</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="81" t="s">
-        <v>3004</v>
+      <c r="A293" s="82" t="s">
+        <v>3032</v>
       </c>
       <c r="B293" s="79" t="s">
         <v>5897</v>
       </c>
       <c r="C293" t="s">
-        <v>6425</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="84" t="s">
-        <v>3020</v>
+      <c r="A294" s="81" t="s">
+        <v>3036</v>
       </c>
       <c r="B294" s="79" t="s">
         <v>5898</v>
       </c>
       <c r="C294" t="s">
-        <v>6426</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="82" t="s">
-        <v>3032</v>
+      <c r="A295" s="81" t="s">
+        <v>3038</v>
       </c>
       <c r="B295" s="79" t="s">
         <v>5899</v>
       </c>
       <c r="C295" t="s">
-        <v>6427</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="81" t="s">
-        <v>3036</v>
+        <v>3045</v>
       </c>
       <c r="B296" s="79" t="s">
         <v>5900</v>
       </c>
       <c r="C296" t="s">
-        <v>6428</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="81" t="s">
-        <v>3038</v>
+        <v>3052</v>
       </c>
       <c r="B297" s="79" t="s">
         <v>5901</v>
       </c>
       <c r="C297" t="s">
-        <v>6429</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="81" t="s">
-        <v>3045</v>
+        <v>3055</v>
       </c>
       <c r="B298" s="79" t="s">
         <v>5902</v>
       </c>
       <c r="C298" t="s">
-        <v>6430</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="81" t="s">
-        <v>3052</v>
+        <v>3065</v>
       </c>
       <c r="B299" s="79" t="s">
         <v>5903</v>
       </c>
       <c r="C299" t="s">
-        <v>6431</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="81" t="s">
-        <v>3055</v>
+        <v>3073</v>
       </c>
       <c r="B300" s="79" t="s">
         <v>5904</v>
       </c>
       <c r="C300" t="s">
-        <v>6432</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="81" t="s">
-        <v>3065</v>
+        <v>3086</v>
       </c>
       <c r="B301" s="79" t="s">
         <v>5905</v>
       </c>
       <c r="C301" t="s">
-        <v>6433</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="81" t="s">
-        <v>3073</v>
+        <v>3087</v>
       </c>
       <c r="B302" s="79" t="s">
         <v>5906</v>
       </c>
       <c r="C302" t="s">
-        <v>6434</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="81" t="s">
-        <v>3086</v>
+        <v>3100</v>
       </c>
       <c r="B303" s="79" t="s">
         <v>5907</v>
       </c>
       <c r="C303" t="s">
-        <v>6435</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="81" t="s">
-        <v>3087</v>
+      <c r="A304" s="84" t="s">
+        <v>3102</v>
       </c>
       <c r="B304" s="79" t="s">
         <v>5908</v>
       </c>
       <c r="C304" t="s">
-        <v>6436</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="81" t="s">
-        <v>3100</v>
+        <v>3106</v>
       </c>
       <c r="B305" s="79" t="s">
         <v>5909</v>
       </c>
       <c r="C305" t="s">
-        <v>6437</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="84" t="s">
-        <v>3102</v>
+      <c r="A306" s="81" t="s">
+        <v>3127</v>
       </c>
       <c r="B306" s="79" t="s">
         <v>5910</v>
       </c>
       <c r="C306" t="s">
-        <v>6438</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="81" t="s">
-        <v>3106</v>
+        <v>3131</v>
       </c>
       <c r="B307" s="79" t="s">
         <v>5911</v>
       </c>
       <c r="C307" t="s">
-        <v>6439</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="81" t="s">
-        <v>3127</v>
+        <v>3147</v>
       </c>
       <c r="B308" s="79" t="s">
         <v>5912</v>
       </c>
       <c r="C308" t="s">
-        <v>6440</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="81" t="s">
-        <v>3131</v>
+        <v>3149</v>
       </c>
       <c r="B309" s="79" t="s">
         <v>5913</v>
       </c>
       <c r="C309" t="s">
-        <v>6441</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="81" t="s">
-        <v>3147</v>
+      <c r="A310" s="85" t="s">
+        <v>3156</v>
       </c>
       <c r="B310" s="79" t="s">
         <v>5914</v>
       </c>
       <c r="C310" t="s">
-        <v>6442</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="81" t="s">
-        <v>3149</v>
+        <v>3166</v>
       </c>
       <c r="B311" s="79" t="s">
         <v>5915</v>
       </c>
       <c r="C311" t="s">
-        <v>6443</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="85" t="s">
-        <v>3156</v>
+      <c r="A312" s="81" t="s">
+        <v>3175</v>
       </c>
       <c r="B312" s="79" t="s">
         <v>5916</v>
       </c>
       <c r="C312" t="s">
-        <v>6444</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="81" t="s">
-        <v>3166</v>
+        <v>3177</v>
       </c>
       <c r="B313" s="79" t="s">
         <v>5917</v>
       </c>
       <c r="C313" t="s">
-        <v>6445</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="81" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="B314" s="79" t="s">
         <v>5918</v>
       </c>
       <c r="C314" t="s">
-        <v>6446</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="81" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="B315" s="79" t="s">
         <v>5919</v>
       </c>
       <c r="C315" t="s">
-        <v>6447</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="81" t="s">
-        <v>3179</v>
+      <c r="A316" s="85" t="s">
+        <v>3189</v>
       </c>
       <c r="B316" s="79" t="s">
         <v>5920</v>
       </c>
       <c r="C316" t="s">
-        <v>6448</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="81" t="s">
-        <v>3181</v>
+        <v>3202</v>
       </c>
       <c r="B317" s="79" t="s">
         <v>5921</v>
       </c>
       <c r="C317" t="s">
-        <v>6449</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="85" t="s">
-        <v>3189</v>
+      <c r="A318" s="81" t="s">
+        <v>3211</v>
       </c>
       <c r="B318" s="79" t="s">
         <v>5922</v>
       </c>
       <c r="C318" t="s">
-        <v>6450</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="81" t="s">
-        <v>3202</v>
+        <v>3214</v>
       </c>
       <c r="B319" s="79" t="s">
         <v>5923</v>
       </c>
       <c r="C319" t="s">
-        <v>6451</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="81" t="s">
-        <v>3211</v>
+        <v>3232</v>
       </c>
       <c r="B320" s="79" t="s">
         <v>5924</v>
       </c>
       <c r="C320" t="s">
-        <v>6452</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="81" t="s">
-        <v>3214</v>
+        <v>3236</v>
       </c>
       <c r="B321" s="79" t="s">
         <v>5925</v>
       </c>
       <c r="C321" t="s">
-        <v>6453</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="81" t="s">
-        <v>3232</v>
+      <c r="A322" s="85" t="s">
+        <v>3242</v>
       </c>
       <c r="B322" s="79" t="s">
         <v>5926</v>
       </c>
       <c r="C322" t="s">
-        <v>6454</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="81" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="B323" s="79" t="s">
         <v>5927</v>
       </c>
       <c r="C323" t="s">
-        <v>6455</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="85" t="s">
-        <v>3242</v>
+      <c r="A324" s="81" t="s">
+        <v>3245</v>
       </c>
       <c r="B324" s="79" t="s">
         <v>5928</v>
       </c>
       <c r="C324" t="s">
-        <v>6456</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="81" t="s">
-        <v>3244</v>
+        <v>3258</v>
       </c>
       <c r="B325" s="79" t="s">
         <v>5929</v>
       </c>
       <c r="C325" t="s">
-        <v>6457</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="81" t="s">
-        <v>3245</v>
+        <v>3279</v>
       </c>
       <c r="B326" s="79" t="s">
         <v>5930</v>
       </c>
       <c r="C326" t="s">
-        <v>6458</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="81" t="s">
-        <v>3258</v>
+        <v>3292</v>
       </c>
       <c r="B327" s="79" t="s">
         <v>5931</v>
       </c>
       <c r="C327" t="s">
-        <v>6459</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="81" t="s">
-        <v>3279</v>
+      <c r="A328" s="84" t="s">
+        <v>5599</v>
       </c>
       <c r="B328" s="79" t="s">
         <v>5932</v>
       </c>
       <c r="C328" t="s">
-        <v>6460</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="81" t="s">
-        <v>3292</v>
+      <c r="A329" s="85" t="s">
+        <v>3314</v>
       </c>
       <c r="B329" s="79" t="s">
         <v>5933</v>
       </c>
       <c r="C329" t="s">
-        <v>6461</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="84" t="s">
-        <v>5599</v>
+      <c r="A330" s="81" t="s">
+        <v>3316</v>
       </c>
       <c r="B330" s="79" t="s">
         <v>5934</v>
       </c>
       <c r="C330" t="s">
-        <v>6462</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="85" t="s">
-        <v>3314</v>
+      <c r="A331" s="81" t="s">
+        <v>3335</v>
       </c>
       <c r="B331" s="79" t="s">
         <v>5935</v>
       </c>
       <c r="C331" t="s">
-        <v>6463</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="81" t="s">
-        <v>3316</v>
+        <v>3343</v>
       </c>
       <c r="B332" s="79" t="s">
         <v>5936</v>
       </c>
       <c r="C332" t="s">
-        <v>6464</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="81" t="s">
-        <v>3335</v>
+      <c r="A333" s="85" t="s">
+        <v>3356</v>
       </c>
       <c r="B333" s="79" t="s">
         <v>5937</v>
       </c>
       <c r="C333" t="s">
-        <v>6465</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="81" t="s">
-        <v>3343</v>
+        <v>3366</v>
       </c>
       <c r="B334" s="79" t="s">
         <v>5938</v>
       </c>
       <c r="C334" t="s">
-        <v>6466</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="85" t="s">
-        <v>3356</v>
+      <c r="A335" s="81" t="s">
+        <v>3368</v>
       </c>
       <c r="B335" s="79" t="s">
         <v>5939</v>
       </c>
       <c r="C335" t="s">
-        <v>6467</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="81" t="s">
-        <v>3366</v>
+      <c r="A336" s="85" t="s">
+        <v>3404</v>
       </c>
       <c r="B336" s="79" t="s">
         <v>5940</v>
       </c>
       <c r="C336" t="s">
-        <v>6468</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="81" t="s">
-        <v>3368</v>
+        <v>3406</v>
       </c>
       <c r="B337" s="79" t="s">
         <v>5941</v>
       </c>
       <c r="C337" t="s">
-        <v>6469</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="85" t="s">
-        <v>3404</v>
+      <c r="A338" s="81" t="s">
+        <v>3410</v>
       </c>
       <c r="B338" s="79" t="s">
         <v>5942</v>
       </c>
       <c r="C338" t="s">
-        <v>6470</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="81" t="s">
-        <v>3406</v>
+        <v>3421</v>
       </c>
       <c r="B339" s="79" t="s">
         <v>5943</v>
       </c>
       <c r="C339" t="s">
-        <v>6471</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="81" t="s">
-        <v>3410</v>
+        <v>3447</v>
       </c>
       <c r="B340" s="79" t="s">
         <v>5944</v>
       </c>
       <c r="C340" t="s">
-        <v>6472</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="81" t="s">
-        <v>3421</v>
+        <v>3452</v>
       </c>
       <c r="B341" s="79" t="s">
         <v>5945</v>
       </c>
       <c r="C341" t="s">
-        <v>6473</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="81" t="s">
-        <v>3447</v>
+        <v>3470</v>
       </c>
       <c r="B342" s="79" t="s">
         <v>5946</v>
       </c>
       <c r="C342" t="s">
-        <v>6474</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="81" t="s">
-        <v>3452</v>
+        <v>3478</v>
       </c>
       <c r="B343" s="79" t="s">
         <v>5947</v>
       </c>
       <c r="C343" t="s">
-        <v>6475</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="81" t="s">
-        <v>3470</v>
+        <v>3497</v>
       </c>
       <c r="B344" s="79" t="s">
         <v>5948</v>
       </c>
       <c r="C344" t="s">
-        <v>6476</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="81" t="s">
-        <v>3478</v>
+        <v>3525</v>
       </c>
       <c r="B345" s="79" t="s">
         <v>5949</v>
       </c>
       <c r="C345" t="s">
-        <v>6477</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="81" t="s">
-        <v>3497</v>
+        <v>3543</v>
       </c>
       <c r="B346" s="79" t="s">
         <v>5950</v>
       </c>
       <c r="C346" t="s">
-        <v>6478</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="81" t="s">
-        <v>3525</v>
+        <v>3549</v>
       </c>
       <c r="B347" s="79" t="s">
         <v>5951</v>
       </c>
       <c r="C347" t="s">
-        <v>6479</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="81" t="s">
-        <v>3543</v>
+        <v>3563</v>
       </c>
       <c r="B348" s="79" t="s">
         <v>5952</v>
       </c>
       <c r="C348" t="s">
-        <v>6480</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="81" t="s">
-        <v>3549</v>
+        <v>3571</v>
       </c>
       <c r="B349" s="79" t="s">
         <v>5953</v>
       </c>
       <c r="C349" t="s">
-        <v>6481</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="81" t="s">
-        <v>3563</v>
+      <c r="A350" s="85" t="s">
+        <v>3574</v>
       </c>
       <c r="B350" s="79" t="s">
         <v>5954</v>
       </c>
       <c r="C350" t="s">
-        <v>6482</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="81" t="s">
-        <v>3571</v>
+        <v>3582</v>
       </c>
       <c r="B351" s="79" t="s">
         <v>5955</v>
       </c>
       <c r="C351" t="s">
-        <v>6483</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="85" t="s">
-        <v>3574</v>
+      <c r="A352" s="82" t="s">
+        <v>3584</v>
       </c>
       <c r="B352" s="79" t="s">
         <v>5956</v>
       </c>
       <c r="C352" t="s">
-        <v>6484</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="81" t="s">
-        <v>3582</v>
+      <c r="A353" s="84" t="s">
+        <v>3603</v>
       </c>
       <c r="B353" s="79" t="s">
         <v>5957</v>
       </c>
       <c r="C353" t="s">
-        <v>6485</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="82" t="s">
-        <v>3584</v>
+      <c r="A354" s="81" t="s">
+        <v>3605</v>
       </c>
       <c r="B354" s="79" t="s">
         <v>5958</v>
       </c>
       <c r="C354" t="s">
-        <v>6486</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="84" t="s">
-        <v>3603</v>
+      <c r="A355" s="82" t="s">
+        <v>3607</v>
       </c>
       <c r="B355" s="79" t="s">
         <v>5959</v>
       </c>
       <c r="C355" t="s">
-        <v>6487</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="81" t="s">
-        <v>3605</v>
+        <v>3609</v>
       </c>
       <c r="B356" s="79" t="s">
         <v>5960</v>
       </c>
       <c r="C356" t="s">
-        <v>6488</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="82" t="s">
-        <v>3607</v>
+      <c r="A357" s="81" t="s">
+        <v>3613</v>
       </c>
       <c r="B357" s="79" t="s">
         <v>5961</v>
       </c>
       <c r="C357" t="s">
-        <v>6489</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="81" t="s">
-        <v>3609</v>
+        <v>3614</v>
       </c>
       <c r="B358" s="79" t="s">
         <v>5962</v>
       </c>
       <c r="C358" t="s">
-        <v>6490</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="81" t="s">
-        <v>3613</v>
+        <v>3627</v>
       </c>
       <c r="B359" s="79" t="s">
         <v>5963</v>
       </c>
       <c r="C359" t="s">
-        <v>6491</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="81" t="s">
-        <v>3614</v>
+      <c r="A360" s="85" t="s">
+        <v>3649</v>
       </c>
       <c r="B360" s="79" t="s">
         <v>5964</v>
       </c>
       <c r="C360" t="s">
-        <v>6492</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="81" t="s">
-        <v>3627</v>
+      <c r="A361" s="85" t="s">
+        <v>3651</v>
       </c>
       <c r="B361" s="79" t="s">
         <v>5965</v>
       </c>
       <c r="C361" t="s">
-        <v>6493</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="85" t="s">
-        <v>3649</v>
+      <c r="A362" s="81" t="s">
+        <v>3654</v>
       </c>
       <c r="B362" s="79" t="s">
         <v>5966</v>
       </c>
       <c r="C362" t="s">
-        <v>6494</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="85" t="s">
-        <v>3651</v>
+      <c r="A363" s="81" t="s">
+        <v>3667</v>
       </c>
       <c r="B363" s="79" t="s">
         <v>5967</v>
       </c>
       <c r="C363" t="s">
-        <v>6495</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="81" t="s">
-        <v>3654</v>
+        <v>3678</v>
       </c>
       <c r="B364" s="79" t="s">
         <v>5968</v>
       </c>
       <c r="C364" t="s">
-        <v>6496</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="81" t="s">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="B365" s="79" t="s">
         <v>5969</v>
       </c>
       <c r="C365" t="s">
-        <v>6497</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="81" t="s">
-        <v>3678</v>
+        <v>3698</v>
       </c>
       <c r="B366" s="79" t="s">
         <v>5970</v>
       </c>
       <c r="C366" t="s">
-        <v>6498</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="81" t="s">
-        <v>3690</v>
+      <c r="A367" s="84" t="s">
+        <v>3699</v>
       </c>
       <c r="B367" s="79" t="s">
         <v>5971</v>
       </c>
       <c r="C367" t="s">
-        <v>6499</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="81" t="s">
-        <v>3698</v>
+        <v>3736</v>
       </c>
       <c r="B368" s="79" t="s">
         <v>5972</v>
       </c>
       <c r="C368" t="s">
-        <v>6500</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="84" t="s">
-        <v>3699</v>
+      <c r="A369" s="81" t="s">
+        <v>3757</v>
       </c>
       <c r="B369" s="79" t="s">
         <v>5973</v>
       </c>
       <c r="C369" t="s">
-        <v>6501</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="81" t="s">
-        <v>3736</v>
+      <c r="A370" s="85" t="s">
+        <v>3764</v>
       </c>
       <c r="B370" s="79" t="s">
         <v>5974</v>
       </c>
       <c r="C370" t="s">
-        <v>6502</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="81" t="s">
-        <v>3757</v>
+        <v>3791</v>
       </c>
       <c r="B371" s="79" t="s">
         <v>5975</v>
       </c>
       <c r="C371" t="s">
-        <v>6503</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="85" t="s">
-        <v>3764</v>
+      <c r="A372" s="81" t="s">
+        <v>3798</v>
       </c>
       <c r="B372" s="79" t="s">
         <v>5976</v>
       </c>
       <c r="C372" t="s">
-        <v>6504</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="81" t="s">
-        <v>3791</v>
+        <v>3826</v>
       </c>
       <c r="B373" s="79" t="s">
         <v>5977</v>
       </c>
       <c r="C373" t="s">
-        <v>6505</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="81" t="s">
-        <v>3798</v>
+        <v>3841</v>
       </c>
       <c r="B374" s="79" t="s">
         <v>5978</v>
       </c>
       <c r="C374" t="s">
-        <v>6506</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="81" t="s">
-        <v>3826</v>
+        <v>3844</v>
       </c>
       <c r="B375" s="79" t="s">
         <v>5979</v>
       </c>
       <c r="C375" t="s">
-        <v>6507</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="81" t="s">
-        <v>3841</v>
+        <v>3850</v>
       </c>
       <c r="B376" s="79" t="s">
         <v>5980</v>
       </c>
       <c r="C376" t="s">
-        <v>6508</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="81" t="s">
-        <v>3844</v>
+      <c r="A377" s="85" t="s">
+        <v>3859</v>
       </c>
       <c r="B377" s="79" t="s">
         <v>5981</v>
       </c>
       <c r="C377" t="s">
-        <v>6509</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="81" t="s">
-        <v>3850</v>
+        <v>3864</v>
       </c>
       <c r="B378" s="79" t="s">
         <v>5982</v>
       </c>
       <c r="C378" t="s">
-        <v>6510</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" s="85" t="s">
-        <v>3859</v>
+      <c r="A379" s="81" t="s">
+        <v>3883</v>
       </c>
       <c r="B379" s="79" t="s">
         <v>5983</v>
       </c>
       <c r="C379" t="s">
-        <v>6511</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="81" t="s">
-        <v>3864</v>
+        <v>3902</v>
       </c>
       <c r="B380" s="79" t="s">
         <v>5984</v>
       </c>
       <c r="C380" t="s">
-        <v>6512</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="81" t="s">
-        <v>3883</v>
+      <c r="A381" s="84" t="s">
+        <v>5601</v>
       </c>
       <c r="B381" s="79" t="s">
         <v>5985</v>
       </c>
       <c r="C381" t="s">
-        <v>6513</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="81" t="s">
-        <v>3902</v>
+        <v>3928</v>
       </c>
       <c r="B382" s="79" t="s">
         <v>5986</v>
       </c>
       <c r="C382" t="s">
-        <v>6514</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="84" t="s">
-        <v>5601</v>
+      <c r="A383" s="81" t="s">
+        <v>3936</v>
       </c>
       <c r="B383" s="79" t="s">
         <v>5987</v>
       </c>
       <c r="C383" t="s">
-        <v>6515</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="81" t="s">
-        <v>3928</v>
+        <v>3955</v>
       </c>
       <c r="B384" s="79" t="s">
         <v>5988</v>
       </c>
       <c r="C384" t="s">
-        <v>6516</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="81" t="s">
-        <v>3936</v>
+      <c r="A385" s="85" t="s">
+        <v>3957</v>
       </c>
       <c r="B385" s="79" t="s">
         <v>5989</v>
       </c>
       <c r="C385" t="s">
-        <v>6517</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="81" t="s">
-        <v>3955</v>
+        <v>3959</v>
       </c>
       <c r="B386" s="79" t="s">
         <v>5990</v>
       </c>
       <c r="C386" t="s">
-        <v>6518</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="85" t="s">
-        <v>3957</v>
+      <c r="A387" s="81" t="s">
+        <v>3960</v>
       </c>
       <c r="B387" s="79" t="s">
         <v>5991</v>
       </c>
       <c r="C387" t="s">
-        <v>6519</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="81" t="s">
-        <v>3959</v>
+        <v>3969</v>
       </c>
       <c r="B388" s="79" t="s">
         <v>5992</v>
       </c>
       <c r="C388" t="s">
-        <v>6520</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="81" t="s">
-        <v>3960</v>
+        <v>3970</v>
       </c>
       <c r="B389" s="79" t="s">
         <v>5993</v>
       </c>
       <c r="C389" t="s">
-        <v>6521</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="81" t="s">
-        <v>3969</v>
+        <v>3993</v>
       </c>
       <c r="B390" s="79" t="s">
         <v>5994</v>
       </c>
       <c r="C390" t="s">
-        <v>6522</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="81" t="s">
-        <v>3970</v>
+        <v>4005</v>
       </c>
       <c r="B391" s="79" t="s">
         <v>5995</v>
       </c>
       <c r="C391" t="s">
-        <v>6523</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="81" t="s">
-        <v>3993</v>
+      <c r="A392" s="85" t="s">
+        <v>4019</v>
       </c>
       <c r="B392" s="79" t="s">
         <v>5996</v>
       </c>
       <c r="C392" t="s">
-        <v>6524</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="81" t="s">
-        <v>4005</v>
+        <v>4020</v>
       </c>
       <c r="B393" s="79" t="s">
         <v>5997</v>
       </c>
       <c r="C393" t="s">
-        <v>6525</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="85" t="s">
-        <v>4019</v>
+        <v>4042</v>
       </c>
       <c r="B394" s="79" t="s">
         <v>5998</v>
       </c>
       <c r="C394" t="s">
-        <v>6526</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="81" t="s">
-        <v>4020</v>
+        <v>4044</v>
       </c>
       <c r="B395" s="79" t="s">
         <v>5999</v>
       </c>
       <c r="C395" t="s">
-        <v>6527</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" s="85" t="s">
-        <v>4042</v>
+      <c r="A396" s="81" t="s">
+        <v>4059</v>
       </c>
       <c r="B396" s="79" t="s">
         <v>6000</v>
       </c>
       <c r="C396" t="s">
-        <v>6528</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="81" t="s">
-        <v>4044</v>
+        <v>4068</v>
       </c>
       <c r="B397" s="79" t="s">
         <v>6001</v>
       </c>
       <c r="C397" t="s">
-        <v>6529</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="81" t="s">
-        <v>4059</v>
+        <v>4071</v>
       </c>
       <c r="B398" s="79" t="s">
         <v>6002</v>
       </c>
       <c r="C398" t="s">
-        <v>6530</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" s="81" t="s">
-        <v>4068</v>
+      <c r="A399" s="85" t="s">
+        <v>4098</v>
       </c>
       <c r="B399" s="79" t="s">
         <v>6003</v>
       </c>
       <c r="C399" t="s">
-        <v>6531</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="81" t="s">
-        <v>4071</v>
+        <v>4100</v>
       </c>
       <c r="B400" s="79" t="s">
         <v>6004</v>
       </c>
       <c r="C400" t="s">
-        <v>6532</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="85" t="s">
-        <v>4098</v>
+      <c r="A401" s="81" t="s">
+        <v>4101</v>
       </c>
       <c r="B401" s="79" t="s">
         <v>6005</v>
       </c>
       <c r="C401" t="s">
-        <v>6533</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="81" t="s">
-        <v>4100</v>
+        <v>4103</v>
       </c>
       <c r="B402" s="79" t="s">
         <v>6006</v>
       </c>
       <c r="C402" t="s">
-        <v>6534</v>
+        <v>6532</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="81" t="s">
-        <v>4101</v>
+        <v>4111</v>
       </c>
       <c r="B403" s="79" t="s">
         <v>6007</v>
       </c>
       <c r="C403" t="s">
-        <v>6535</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="81" t="s">
-        <v>4103</v>
+        <v>4124</v>
       </c>
       <c r="B404" s="79" t="s">
         <v>6008</v>
       </c>
       <c r="C404" t="s">
-        <v>6536</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="81" t="s">
-        <v>4111</v>
+        <v>4127</v>
       </c>
       <c r="B405" s="79" t="s">
         <v>6009</v>
       </c>
       <c r="C405" t="s">
-        <v>6537</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="81" t="s">
-        <v>4124</v>
+        <v>4131</v>
       </c>
       <c r="B406" s="79" t="s">
         <v>6010</v>
       </c>
       <c r="C406" t="s">
-        <v>6538</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="81" t="s">
-        <v>4127</v>
+        <v>4133</v>
       </c>
       <c r="B407" s="79" t="s">
         <v>6011</v>
       </c>
       <c r="C407" t="s">
-        <v>6539</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="81" t="s">
-        <v>4131</v>
+        <v>4139</v>
       </c>
       <c r="B408" s="79" t="s">
         <v>6012</v>
       </c>
       <c r="C408" t="s">
-        <v>6540</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="81" t="s">
-        <v>4133</v>
+        <v>4141</v>
       </c>
       <c r="B409" s="79" t="s">
         <v>6013</v>
       </c>
       <c r="C409" t="s">
-        <v>6541</v>
+        <v>6539</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="81" t="s">
-        <v>4139</v>
+        <v>4143</v>
       </c>
       <c r="B410" s="79" t="s">
         <v>6014</v>
       </c>
       <c r="C410" t="s">
-        <v>6542</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="81" t="s">
-        <v>4141</v>
+        <v>4172</v>
       </c>
       <c r="B411" s="79" t="s">
         <v>6015</v>
       </c>
       <c r="C411" t="s">
-        <v>6543</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" s="81" t="s">
-        <v>4143</v>
+      <c r="A412" s="85" t="s">
+        <v>4181</v>
       </c>
       <c r="B412" s="79" t="s">
         <v>6016</v>
       </c>
       <c r="C412" t="s">
-        <v>6544</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="81" t="s">
-        <v>4172</v>
+        <v>4195</v>
       </c>
       <c r="B413" s="79" t="s">
         <v>6017</v>
       </c>
       <c r="C413" t="s">
-        <v>6545</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" s="85" t="s">
-        <v>4181</v>
+      <c r="A414" s="81" t="s">
+        <v>4225</v>
       </c>
       <c r="B414" s="79" t="s">
         <v>6018</v>
       </c>
       <c r="C414" t="s">
-        <v>6546</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="81" t="s">
-        <v>4195</v>
+        <v>4280</v>
       </c>
       <c r="B415" s="79" t="s">
         <v>6019</v>
       </c>
       <c r="C415" t="s">
-        <v>6547</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="81" t="s">
-        <v>4225</v>
+        <v>4282</v>
       </c>
       <c r="B416" s="79" t="s">
         <v>6020</v>
       </c>
       <c r="C416" t="s">
-        <v>6548</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="81" t="s">
-        <v>4280</v>
+        <v>4289</v>
       </c>
       <c r="B417" s="79" t="s">
         <v>6021</v>
       </c>
       <c r="C417" t="s">
-        <v>6549</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="81" t="s">
-        <v>4282</v>
+        <v>4291</v>
       </c>
       <c r="B418" s="79" t="s">
         <v>6022</v>
       </c>
       <c r="C418" t="s">
-        <v>6550</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="81" t="s">
-        <v>4289</v>
+        <v>4293</v>
       </c>
       <c r="B419" s="79" t="s">
         <v>6023</v>
       </c>
       <c r="C419" t="s">
-        <v>6551</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="81" t="s">
-        <v>4291</v>
+        <v>4299</v>
       </c>
       <c r="B420" s="79" t="s">
         <v>6024</v>
       </c>
       <c r="C420" t="s">
-        <v>6552</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="81" t="s">
-        <v>4293</v>
+        <v>4312</v>
       </c>
       <c r="B421" s="79" t="s">
         <v>6025</v>
       </c>
       <c r="C421" t="s">
-        <v>6553</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="81" t="s">
-        <v>4299</v>
+        <v>4322</v>
       </c>
       <c r="B422" s="79" t="s">
         <v>6026</v>
       </c>
       <c r="C422" t="s">
-        <v>6554</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="81" t="s">
-        <v>4312</v>
+        <v>4325</v>
       </c>
       <c r="B423" s="79" t="s">
         <v>6027</v>
       </c>
       <c r="C423" t="s">
-        <v>6555</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="81" t="s">
-        <v>4322</v>
+        <v>4326</v>
       </c>
       <c r="B424" s="79" t="s">
         <v>6028</v>
       </c>
       <c r="C424" t="s">
-        <v>6556</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="81" t="s">
-        <v>4325</v>
+      <c r="A425" s="85" t="s">
+        <v>4328</v>
       </c>
       <c r="B425" s="79" t="s">
         <v>6029</v>
       </c>
       <c r="C425" t="s">
-        <v>6557</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="81" t="s">
-        <v>4326</v>
+        <v>4330</v>
       </c>
       <c r="B426" s="79" t="s">
         <v>6030</v>
       </c>
       <c r="C426" t="s">
-        <v>6558</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="85" t="s">
-        <v>4328</v>
+        <v>4339</v>
       </c>
       <c r="B427" s="79" t="s">
         <v>6031</v>
       </c>
       <c r="C427" t="s">
-        <v>6559</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="81" t="s">
-        <v>4330</v>
+        <v>4354</v>
       </c>
       <c r="B428" s="79" t="s">
         <v>6032</v>
       </c>
       <c r="C428" t="s">
-        <v>6560</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="85" t="s">
-        <v>4339</v>
+      <c r="A429" s="81" t="s">
+        <v>4362</v>
       </c>
       <c r="B429" s="79" t="s">
         <v>6033</v>
       </c>
       <c r="C429" t="s">
-        <v>6561</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="81" t="s">
-        <v>4354</v>
+        <v>4365</v>
       </c>
       <c r="B430" s="79" t="s">
         <v>6034</v>
       </c>
       <c r="C430" t="s">
-        <v>6562</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="81" t="s">
-        <v>4362</v>
+        <v>4371</v>
       </c>
       <c r="B431" s="79" t="s">
         <v>6035</v>
       </c>
       <c r="C431" t="s">
-        <v>6563</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" s="81" t="s">
-        <v>4365</v>
+      <c r="A432" s="84" t="s">
+        <v>4375</v>
       </c>
       <c r="B432" s="79" t="s">
         <v>6036</v>
       </c>
       <c r="C432" t="s">
-        <v>6564</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="81" t="s">
-        <v>4371</v>
+        <v>4394</v>
       </c>
       <c r="B433" s="79" t="s">
         <v>6037</v>
       </c>
       <c r="C433" t="s">
-        <v>6565</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="84" t="s">
-        <v>4375</v>
+      <c r="A434" s="85" t="s">
+        <v>4396</v>
       </c>
       <c r="B434" s="79" t="s">
         <v>6038</v>
       </c>
       <c r="C434" t="s">
-        <v>6566</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="81" t="s">
-        <v>4394</v>
+        <v>4404</v>
       </c>
       <c r="B435" s="79" t="s">
         <v>6039</v>
       </c>
       <c r="C435" t="s">
-        <v>6567</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="85" t="s">
-        <v>4396</v>
+      <c r="A436" s="81" t="s">
+        <v>4412</v>
       </c>
       <c r="B436" s="79" t="s">
         <v>6040</v>
       </c>
       <c r="C436" t="s">
-        <v>6568</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="81" t="s">
-        <v>4404</v>
+        <v>4430</v>
       </c>
       <c r="B437" s="79" t="s">
         <v>6041</v>
       </c>
       <c r="C437" t="s">
-        <v>6569</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="81" t="s">
-        <v>4412</v>
+        <v>4436</v>
       </c>
       <c r="B438" s="79" t="s">
         <v>6042</v>
       </c>
       <c r="C438" t="s">
-        <v>6570</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" s="81" t="s">
-        <v>4430</v>
+      <c r="A439" s="85" t="s">
+        <v>4438</v>
       </c>
       <c r="B439" s="79" t="s">
         <v>6043</v>
       </c>
       <c r="C439" t="s">
-        <v>6571</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="81" t="s">
-        <v>4436</v>
+        <v>4445</v>
       </c>
       <c r="B440" s="79" t="s">
         <v>6044</v>
       </c>
       <c r="C440" t="s">
-        <v>6572</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="85" t="s">
-        <v>4438</v>
+      <c r="A441" s="81" t="s">
+        <v>4451</v>
       </c>
       <c r="B441" s="79" t="s">
         <v>6045</v>
       </c>
       <c r="C441" t="s">
-        <v>6573</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="81" t="s">
-        <v>4445</v>
+        <v>4456</v>
       </c>
       <c r="B442" s="79" t="s">
         <v>6046</v>
       </c>
       <c r="C442" t="s">
-        <v>6574</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="81" t="s">
-        <v>4451</v>
+        <v>4457</v>
       </c>
       <c r="B443" s="79" t="s">
         <v>6047</v>
       </c>
       <c r="C443" t="s">
-        <v>6575</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="81" t="s">
-        <v>4456</v>
+        <v>4461</v>
       </c>
       <c r="B444" s="79" t="s">
         <v>6048</v>
       </c>
       <c r="C444" t="s">
-        <v>6576</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="81" t="s">
-        <v>4457</v>
+        <v>4468</v>
       </c>
       <c r="B445" s="79" t="s">
         <v>6049</v>
       </c>
       <c r="C445" t="s">
-        <v>6577</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="81" t="s">
-        <v>4461</v>
+      <c r="A446" s="85" t="s">
+        <v>4473</v>
       </c>
       <c r="B446" s="79" t="s">
         <v>6050</v>
       </c>
       <c r="C446" t="s">
-        <v>6578</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="81" t="s">
-        <v>4468</v>
+        <v>4483</v>
       </c>
       <c r="B447" s="79" t="s">
         <v>6051</v>
       </c>
       <c r="C447" t="s">
-        <v>6579</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" s="85" t="s">
-        <v>4473</v>
+      <c r="A448" s="81" t="s">
+        <v>4485</v>
       </c>
       <c r="B448" s="79" t="s">
         <v>6052</v>
       </c>
       <c r="C448" t="s">
-        <v>6580</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="81" t="s">
-        <v>4483</v>
+        <v>4488</v>
       </c>
       <c r="B449" s="79" t="s">
         <v>6053</v>
       </c>
       <c r="C449" t="s">
-        <v>6581</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="81" t="s">
-        <v>4485</v>
+        <v>4497</v>
       </c>
       <c r="B450" s="79" t="s">
         <v>6054</v>
       </c>
       <c r="C450" t="s">
-        <v>6582</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="81" t="s">
-        <v>4488</v>
+        <v>4516</v>
       </c>
       <c r="B451" s="79" t="s">
         <v>6055</v>
       </c>
       <c r="C451" t="s">
-        <v>6583</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="81" t="s">
-        <v>4497</v>
+        <v>4546</v>
       </c>
       <c r="B452" s="79" t="s">
         <v>6056</v>
       </c>
       <c r="C452" t="s">
-        <v>6584</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="81" t="s">
-        <v>4516</v>
+        <v>4558</v>
       </c>
       <c r="B453" s="79" t="s">
         <v>6057</v>
       </c>
       <c r="C453" t="s">
-        <v>6585</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="81" t="s">
-        <v>4546</v>
+        <v>4566</v>
       </c>
       <c r="B454" s="79" t="s">
         <v>6058</v>
       </c>
       <c r="C454" t="s">
-        <v>6586</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="81" t="s">
-        <v>4558</v>
+        <v>4567</v>
       </c>
       <c r="B455" s="79" t="s">
         <v>6059</v>
       </c>
       <c r="C455" t="s">
-        <v>6587</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="81" t="s">
-        <v>4566</v>
+        <v>4579</v>
       </c>
       <c r="B456" s="79" t="s">
         <v>6060</v>
       </c>
       <c r="C456" t="s">
-        <v>6588</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="81" t="s">
-        <v>4567</v>
+        <v>4599</v>
       </c>
       <c r="B457" s="79" t="s">
         <v>6061</v>
       </c>
       <c r="C457" t="s">
-        <v>6589</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="81" t="s">
-        <v>4579</v>
+        <v>4600</v>
       </c>
       <c r="B458" s="79" t="s">
         <v>6062</v>
       </c>
       <c r="C458" t="s">
-        <v>6590</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="81" t="s">
-        <v>4599</v>
+        <v>4603</v>
       </c>
       <c r="B459" s="79" t="s">
         <v>6063</v>
       </c>
       <c r="C459" t="s">
-        <v>6591</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="81" t="s">
-        <v>4600</v>
+        <v>4620</v>
       </c>
       <c r="B460" s="79" t="s">
         <v>6064</v>
       </c>
       <c r="C460" t="s">
-        <v>6592</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="81" t="s">
-        <v>4603</v>
+        <v>4622</v>
       </c>
       <c r="B461" s="79" t="s">
         <v>6065</v>
       </c>
       <c r="C461" t="s">
-        <v>6593</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="81" t="s">
-        <v>4620</v>
+        <v>4676</v>
       </c>
       <c r="B462" s="79" t="s">
         <v>6066</v>
       </c>
       <c r="C462" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="81" t="s">
-        <v>4622</v>
+        <v>4683</v>
       </c>
       <c r="B463" s="79" t="s">
         <v>6067</v>
       </c>
-      <c r="C463" t="s">
-        <v>6595</v>
+      <c r="C463">
+        <v>5569</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="81" t="s">
-        <v>4676</v>
+        <v>4754</v>
       </c>
       <c r="B464" s="79" t="s">
         <v>6068</v>
       </c>
       <c r="C464" t="s">
-        <v>6596</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="81" t="s">
-        <v>4683</v>
+        <v>4806</v>
       </c>
       <c r="B465" s="79" t="s">
         <v>6069</v>
       </c>
-      <c r="C465">
-        <v>5569</v>
+      <c r="C465" t="s">
+        <v>6594</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="81" t="s">
-        <v>4754</v>
+        <v>4812</v>
       </c>
       <c r="B466" s="79" t="s">
         <v>6070</v>
       </c>
       <c r="C466" t="s">
-        <v>6597</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="81" t="s">
-        <v>4806</v>
+        <v>4814</v>
       </c>
       <c r="B467" s="79" t="s">
         <v>6071</v>
       </c>
       <c r="C467" t="s">
-        <v>6598</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="81" t="s">
-        <v>4812</v>
+        <v>4828</v>
       </c>
       <c r="B468" s="79" t="s">
         <v>6072</v>
       </c>
       <c r="C468" t="s">
-        <v>6599</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="A469" s="81" t="s">
-        <v>4814</v>
+      <c r="A469" s="84" t="s">
+        <v>5591</v>
       </c>
       <c r="B469" s="79" t="s">
         <v>6073</v>
       </c>
       <c r="C469" t="s">
-        <v>6600</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="81" t="s">
-        <v>4828</v>
+        <v>4854</v>
       </c>
       <c r="B470" s="79" t="s">
         <v>6074</v>
       </c>
       <c r="C470" t="s">
-        <v>6601</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="A471" s="84" t="s">
-        <v>5591</v>
+      <c r="A471" s="81" t="s">
+        <v>4861</v>
       </c>
       <c r="B471" s="79" t="s">
         <v>6075</v>
       </c>
       <c r="C471" t="s">
-        <v>6602</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="81" t="s">
-        <v>4854</v>
+        <v>4870</v>
       </c>
       <c r="B472" s="79" t="s">
         <v>6076</v>
       </c>
       <c r="C472" t="s">
-        <v>6603</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="81" t="s">
-        <v>4861</v>
+        <v>4878</v>
       </c>
       <c r="B473" s="79" t="s">
         <v>6077</v>
       </c>
       <c r="C473" t="s">
-        <v>6604</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="81" t="s">
-        <v>4870</v>
+      <c r="A474" s="85" t="s">
+        <v>4882</v>
       </c>
       <c r="B474" s="79" t="s">
         <v>6078</v>
       </c>
       <c r="C474" t="s">
-        <v>6605</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="81" t="s">
-        <v>4878</v>
+        <v>4885</v>
       </c>
       <c r="B475" s="79" t="s">
         <v>6079</v>
       </c>
       <c r="C475" t="s">
-        <v>6606</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="85" t="s">
-        <v>4882</v>
+      <c r="A476" s="81" t="s">
+        <v>4888</v>
       </c>
       <c r="B476" s="79" t="s">
         <v>6080</v>
       </c>
       <c r="C476" t="s">
-        <v>6607</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="81" t="s">
-        <v>4885</v>
+        <v>4896</v>
       </c>
       <c r="B477" s="79" t="s">
         <v>6081</v>
       </c>
       <c r="C477" t="s">
-        <v>6608</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="81" t="s">
-        <v>4888</v>
+        <v>4901</v>
       </c>
       <c r="B478" s="79" t="s">
         <v>6082</v>
       </c>
       <c r="C478" t="s">
-        <v>6609</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="81" t="s">
-        <v>4896</v>
+        <v>4905</v>
       </c>
       <c r="B479" s="79" t="s">
         <v>6083</v>
       </c>
       <c r="C479" t="s">
-        <v>6610</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="81" t="s">
-        <v>4901</v>
+        <v>4921</v>
       </c>
       <c r="B480" s="79" t="s">
         <v>6084</v>
       </c>
       <c r="C480" t="s">
-        <v>6611</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="81" t="s">
-        <v>4905</v>
+        <v>4932</v>
       </c>
       <c r="B481" s="79" t="s">
         <v>6085</v>
       </c>
       <c r="C481" t="s">
-        <v>6612</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="81" t="s">
-        <v>4921</v>
+        <v>4945</v>
       </c>
       <c r="B482" s="79" t="s">
         <v>6086</v>
       </c>
       <c r="C482" t="s">
-        <v>6613</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="81" t="s">
-        <v>4932</v>
+      <c r="A483" s="84" t="s">
+        <v>4951</v>
       </c>
       <c r="B483" s="79" t="s">
         <v>6087</v>
       </c>
       <c r="C483" t="s">
-        <v>6614</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="81" t="s">
-        <v>4945</v>
+        <v>4955</v>
       </c>
       <c r="B484" s="79" t="s">
         <v>6088</v>
       </c>
       <c r="C484" t="s">
-        <v>6615</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="84" t="s">
-        <v>4951</v>
+        <v>5593</v>
       </c>
       <c r="B485" s="79" t="s">
         <v>6089</v>
       </c>
       <c r="C485" t="s">
-        <v>6616</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="81" t="s">
-        <v>4955</v>
+      <c r="A486" s="85" t="s">
+        <v>4994</v>
       </c>
       <c r="B486" s="79" t="s">
         <v>6090</v>
       </c>
       <c r="C486" t="s">
-        <v>6617</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="84" t="s">
-        <v>5593</v>
+      <c r="A487" s="81" t="s">
+        <v>5008</v>
       </c>
       <c r="B487" s="79" t="s">
         <v>6091</v>
       </c>
       <c r="C487" t="s">
-        <v>6618</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="85" t="s">
-        <v>4994</v>
+      <c r="A488" s="81" t="s">
+        <v>5011</v>
       </c>
       <c r="B488" s="79" t="s">
         <v>6092</v>
       </c>
       <c r="C488" t="s">
-        <v>6619</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="81" t="s">
-        <v>5008</v>
+        <v>5064</v>
       </c>
       <c r="B489" s="79" t="s">
         <v>6093</v>
       </c>
       <c r="C489" t="s">
-        <v>6620</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="81" t="s">
-        <v>5011</v>
+        <v>5084</v>
       </c>
       <c r="B490" s="79" t="s">
         <v>6094</v>
       </c>
       <c r="C490" t="s">
-        <v>6621</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="81" t="s">
-        <v>5064</v>
+        <v>5090</v>
       </c>
       <c r="B491" s="79" t="s">
         <v>6095</v>
       </c>
       <c r="C491" t="s">
-        <v>6622</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="81" t="s">
-        <v>5084</v>
+        <v>5120</v>
       </c>
       <c r="B492" s="79" t="s">
         <v>6096</v>
       </c>
       <c r="C492" t="s">
-        <v>6623</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="81" t="s">
-        <v>5090</v>
+        <v>5129</v>
       </c>
       <c r="B493" s="79" t="s">
         <v>6097</v>
       </c>
       <c r="C493" t="s">
-        <v>6624</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="81" t="s">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="B494" s="79" t="s">
         <v>6098</v>
       </c>
       <c r="C494" t="s">
-        <v>6625</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="81" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
       <c r="B495" s="79" t="s">
         <v>6099</v>
       </c>
       <c r="C495" t="s">
-        <v>6626</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="81" t="s">
-        <v>5130</v>
+        <v>5161</v>
       </c>
       <c r="B496" s="79" t="s">
         <v>6100</v>
       </c>
       <c r="C496" t="s">
-        <v>6627</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="81" t="s">
-        <v>5131</v>
+        <v>5169</v>
       </c>
       <c r="B497" s="79" t="s">
         <v>6101</v>
       </c>
       <c r="C497" t="s">
-        <v>6628</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="81" t="s">
-        <v>5161</v>
+        <v>5194</v>
       </c>
       <c r="B498" s="79" t="s">
         <v>6102</v>
       </c>
       <c r="C498" t="s">
-        <v>6629</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" s="81" t="s">
-        <v>5169</v>
+      <c r="A499" s="85" t="s">
+        <v>5196</v>
       </c>
       <c r="B499" s="79" t="s">
         <v>6103</v>
       </c>
       <c r="C499" t="s">
-        <v>6630</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="81" t="s">
-        <v>5194</v>
+        <v>5198</v>
       </c>
       <c r="B500" s="79" t="s">
         <v>6104</v>
       </c>
       <c r="C500" t="s">
-        <v>6631</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" s="85" t="s">
-        <v>5196</v>
+      <c r="A501" s="81" t="s">
+        <v>5202</v>
       </c>
       <c r="B501" s="79" t="s">
         <v>6105</v>
       </c>
       <c r="C501" t="s">
-        <v>6632</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="81" t="s">
-        <v>5198</v>
+        <v>5204</v>
       </c>
       <c r="B502" s="79" t="s">
         <v>6106</v>
       </c>
       <c r="C502" t="s">
-        <v>6633</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="81" t="s">
-        <v>5202</v>
+      <c r="A503" s="85" t="s">
+        <v>5217</v>
       </c>
       <c r="B503" s="79" t="s">
         <v>6107</v>
       </c>
       <c r="C503" t="s">
-        <v>6634</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="81" t="s">
-        <v>5204</v>
+        <v>5233</v>
       </c>
       <c r="B504" s="79" t="s">
         <v>6108</v>
       </c>
       <c r="C504" t="s">
-        <v>6635</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" s="85" t="s">
-        <v>5217</v>
+      <c r="A505" s="81" t="s">
+        <v>5274</v>
       </c>
       <c r="B505" s="79" t="s">
         <v>6109</v>
       </c>
       <c r="C505" t="s">
-        <v>6636</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="81" t="s">
-        <v>5233</v>
+        <v>5277</v>
       </c>
       <c r="B506" s="79" t="s">
         <v>6110</v>
       </c>
       <c r="C506" t="s">
-        <v>6637</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="81" t="s">
-        <v>5274</v>
+        <v>5279</v>
       </c>
       <c r="B507" s="79" t="s">
         <v>6111</v>
       </c>
       <c r="C507" t="s">
-        <v>6638</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="81" t="s">
-        <v>5277</v>
+        <v>5286</v>
       </c>
       <c r="B508" s="79" t="s">
         <v>6112</v>
       </c>
       <c r="C508" t="s">
-        <v>6639</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="81" t="s">
-        <v>5279</v>
+        <v>5294</v>
       </c>
       <c r="B509" s="79" t="s">
         <v>6113</v>
       </c>
       <c r="C509" t="s">
-        <v>6640</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="81" t="s">
-        <v>5286</v>
+        <v>5333</v>
       </c>
       <c r="B510" s="79" t="s">
         <v>6114</v>
       </c>
       <c r="C510" t="s">
-        <v>6641</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="81" t="s">
-        <v>5294</v>
+        <v>5348</v>
       </c>
       <c r="B511" s="79" t="s">
         <v>6115</v>
       </c>
       <c r="C511" t="s">
-        <v>6642</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="81" t="s">
-        <v>5333</v>
+        <v>5365</v>
       </c>
       <c r="B512" s="79" t="s">
         <v>6116</v>
       </c>
       <c r="C512" t="s">
-        <v>6643</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" s="81" t="s">
-        <v>5348</v>
+      <c r="A513" s="84" t="s">
+        <v>5602</v>
       </c>
       <c r="B513" s="79" t="s">
         <v>6117</v>
       </c>
       <c r="C513" t="s">
-        <v>6644</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="81" t="s">
-        <v>5365</v>
+        <v>5379</v>
       </c>
       <c r="B514" s="79" t="s">
         <v>6118</v>
       </c>
       <c r="C514" t="s">
-        <v>6645</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="A515" s="84" t="s">
-        <v>5602</v>
+      <c r="A515" s="81" t="s">
+        <v>5401</v>
       </c>
       <c r="B515" s="79" t="s">
         <v>6119</v>
       </c>
       <c r="C515" t="s">
-        <v>6646</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="81" t="s">
-        <v>5379</v>
+        <v>5403</v>
       </c>
       <c r="B516" s="79" t="s">
         <v>6120</v>
       </c>
       <c r="C516" t="s">
-        <v>6647</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="81" t="s">
-        <v>5401</v>
+        <v>5411</v>
       </c>
       <c r="B517" s="79" t="s">
         <v>6121</v>
       </c>
       <c r="C517" t="s">
-        <v>6648</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="81" t="s">
-        <v>5403</v>
+        <v>5416</v>
       </c>
       <c r="B518" s="79" t="s">
         <v>6122</v>
       </c>
       <c r="C518" t="s">
-        <v>6649</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="81" t="s">
-        <v>5411</v>
+        <v>5431</v>
       </c>
       <c r="B519" s="79" t="s">
         <v>6123</v>
       </c>
       <c r="C519" t="s">
-        <v>6650</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="81" t="s">
-        <v>5416</v>
+        <v>5466</v>
       </c>
       <c r="B520" s="79" t="s">
         <v>6124</v>
       </c>
       <c r="C520" t="s">
-        <v>6651</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="81" t="s">
-        <v>5431</v>
+        <v>5471</v>
       </c>
       <c r="B521" s="79" t="s">
         <v>6125</v>
       </c>
       <c r="C521" t="s">
-        <v>6652</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="81" t="s">
-        <v>5466</v>
+        <v>5489</v>
       </c>
       <c r="B522" s="79" t="s">
         <v>6126</v>
       </c>
       <c r="C522" t="s">
-        <v>6653</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="81" t="s">
-        <v>5471</v>
+        <v>5506</v>
       </c>
       <c r="B523" s="79" t="s">
         <v>6127</v>
       </c>
       <c r="C523" t="s">
-        <v>6654</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="81" t="s">
-        <v>5489</v>
+        <v>5519</v>
       </c>
       <c r="B524" s="79" t="s">
         <v>6128</v>
       </c>
       <c r="C524" t="s">
-        <v>6655</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="81" t="s">
-        <v>5506</v>
+        <v>5543</v>
       </c>
       <c r="B525" s="79" t="s">
         <v>6129</v>
       </c>
       <c r="C525" t="s">
-        <v>6656</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="81" t="s">
-        <v>5519</v>
+        <v>5564</v>
       </c>
       <c r="B526" s="79" t="s">
         <v>6130</v>
       </c>
       <c r="C526" t="s">
-        <v>6657</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="81" t="s">
-        <v>5543</v>
-      </c>
-      <c r="B527" s="79" t="s">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="16" thickBot="1">
+      <c r="A527" s="89" t="s">
+        <v>5574</v>
+      </c>
+      <c r="B527" s="80" t="s">
         <v>6131</v>
       </c>
       <c r="C527" t="s">
-        <v>6658</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="81" t="s">
-        <v>5564</v>
-      </c>
-      <c r="B528" s="79" t="s">
-        <v>6132</v>
-      </c>
-      <c r="C528" t="s">
-        <v>6659</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" ht="16" thickBot="1">
-      <c r="A529" s="89" t="s">
-        <v>5574</v>
-      </c>
-      <c r="B529" s="80" t="s">
-        <v>6133</v>
-      </c>
-      <c r="C529" t="s">
-        <v>6660</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" ht="16" thickTop="1"/>
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="16" thickTop="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A529">
-    <sortCondition ref="A2:A529"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A527">
+    <sortCondition ref="A2:A527"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/db/uploads/50gacoops.xlsx
+++ b/db/uploads/50gacoops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/GA_system/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63769D58-0481-0140-8D1C-7A8B44F433A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B452171-BB08-7248-BF7B-E6F17D540325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8495" uniqueCount="6657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8531" uniqueCount="6685">
   <si>
     <t>NO.</t>
   </si>
@@ -20081,6 +20081,90 @@
   </si>
   <si>
     <t>CNCL</t>
+  </si>
+  <si>
+    <t>BATAAN COOPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>COOPERATIVE BANK OF CAGAYAN</t>
+  </si>
+  <si>
+    <t>COOPERATIVE BANK OF MOUNTAIN PROVINCE</t>
+  </si>
+  <si>
+    <t>COOPERATIVE BANK OF NEGROS ORIENTAL</t>
+  </si>
+  <si>
+    <t>COOPERATIVE BANK OF ZAMBALES</t>
+  </si>
+  <si>
+    <t>METRO SOUTH COOPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>MINDANAO CONSOLIDATED COOPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>NETWORK CONSOLIDATED COOPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>OCCIDENTAL MINDORO COOPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>BANCO COOPERATIVA DE ZAMBOANGA</t>
+  </si>
+  <si>
+    <t>AGA00530</t>
+  </si>
+  <si>
+    <t>AGA00531</t>
+  </si>
+  <si>
+    <t>AGA00532</t>
+  </si>
+  <si>
+    <t>AGA00533</t>
+  </si>
+  <si>
+    <t>AGA00534</t>
+  </si>
+  <si>
+    <t>AGA00535</t>
+  </si>
+  <si>
+    <t>AGA00536</t>
+  </si>
+  <si>
+    <t>AGA00537</t>
+  </si>
+  <si>
+    <t>AGA00538</t>
+  </si>
+  <si>
+    <t>AGA00539</t>
+  </si>
+  <si>
+    <t>AGA00540</t>
+  </si>
+  <si>
+    <t>AGA00541</t>
+  </si>
+  <si>
+    <t>AGA00542</t>
+  </si>
+  <si>
+    <t>AGA00543</t>
+  </si>
+  <si>
+    <t>AGA00544</t>
+  </si>
+  <si>
+    <t>AGA00545</t>
+  </si>
+  <si>
+    <t>AGA00546</t>
+  </si>
+  <si>
+    <t>AGA00547</t>
   </si>
 </sst>
 </file>
@@ -20090,7 +20174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20242,6 +20326,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -20520,7 +20610,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20784,6 +20874,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -74669,10 +74760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C528"/>
+  <dimension ref="A2:C545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B528" sqref="B528:B545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -80468,7 +80559,150 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="16" thickTop="1"/>
+    <row r="528" spans="1:3" ht="17" thickTop="1">
+      <c r="A528" s="101" t="s">
+        <v>6657</v>
+      </c>
+      <c r="B528" s="101" t="s">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="16">
+      <c r="A529" s="101" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B529" s="101" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="16">
+      <c r="A530" s="101" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B530" s="101" t="s">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="16">
+      <c r="A531" s="101" t="s">
+        <v>6658</v>
+      </c>
+      <c r="B531" s="101" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="16">
+      <c r="A532" s="101" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B532" s="101" t="s">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="16">
+      <c r="A533" s="101" t="s">
+        <v>6659</v>
+      </c>
+      <c r="B533" s="101" t="s">
+        <v>6672</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="16">
+      <c r="A534" s="101" t="s">
+        <v>6660</v>
+      </c>
+      <c r="B534" s="101" t="s">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="16">
+      <c r="A535" s="101" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B535" s="101" t="s">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="16">
+      <c r="A536" s="101" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B536" s="101" t="s">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="16">
+      <c r="A537" s="101" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B537" s="101" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="16">
+      <c r="A538" s="101" t="s">
+        <v>6661</v>
+      </c>
+      <c r="B538" s="101" t="s">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="16">
+      <c r="A539" s="101" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B539" s="101" t="s">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="16">
+      <c r="A540" s="101" t="s">
+        <v>6662</v>
+      </c>
+      <c r="B540" s="101" t="s">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="16">
+      <c r="A541" s="101" t="s">
+        <v>6663</v>
+      </c>
+      <c r="B541" s="101" t="s">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="16">
+      <c r="A542" s="101" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B542" s="101" t="s">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="16">
+      <c r="A543" s="101" t="s">
+        <v>6664</v>
+      </c>
+      <c r="B543" s="101" t="s">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="16">
+      <c r="A544" s="101" t="s">
+        <v>6665</v>
+      </c>
+      <c r="B544" s="101" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="16">
+      <c r="A545" s="101" t="s">
+        <v>6666</v>
+      </c>
+      <c r="B545" s="101" t="s">
+        <v>6684</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A527">
     <sortCondition ref="A2:A527"/>
